--- a/Ads_data.xlsx
+++ b/Ads_data.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="221">
   <si>
     <t>Campaign Name</t>
   </si>
@@ -48,826 +48,271 @@
     <t>Spent</t>
   </si>
   <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>CL - Campagne permanente - Boost post</t>
+  </si>
+  <si>
+    <t>34641</t>
+  </si>
+  <si>
+    <t>313882</t>
+  </si>
+  <si>
+    <t>6724.54</t>
+  </si>
+  <si>
+    <t>2019-01-01</t>
+  </si>
+  <si>
+    <t>CLM - Conversions - Budget Optimization</t>
+  </si>
+  <si>
+    <t>4564</t>
+  </si>
+  <si>
+    <t>127830</t>
+  </si>
+  <si>
+    <t>6548.54</t>
+  </si>
+  <si>
     <t>eLearning - Conversion - Budget Optimization - PO000000</t>
   </si>
   <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>4954</t>
-  </si>
-  <si>
-    <t>98.5</t>
+    <t>7775</t>
+  </si>
+  <si>
+    <t>169299</t>
+  </si>
+  <si>
+    <t>8411.93</t>
+  </si>
+  <si>
+    <t>CL - Portes ouvertes - Fevrier 2019</t>
+  </si>
+  <si>
+    <t>1159</t>
+  </si>
+  <si>
+    <t>46936</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>eLearning- Webinaires - Fev 2019 - EN/FR</t>
+  </si>
+  <si>
+    <t>1696</t>
+  </si>
+  <si>
+    <t>39115</t>
+  </si>
+  <si>
+    <t>CL - R&amp;F - Discussion DEC Phase 1 - Janvier 2019 - FR - PO005153</t>
+  </si>
+  <si>
+    <t>2058</t>
+  </si>
+  <si>
+    <t>208930</t>
+  </si>
+  <si>
+    <t>3146.22</t>
+  </si>
+  <si>
+    <t>CL - R&amp;F - Discussion DEC - Janvier 2019 - EN</t>
+  </si>
+  <si>
+    <t>773</t>
+  </si>
+  <si>
+    <t>213373</t>
+  </si>
+  <si>
+    <t>553.41</t>
+  </si>
+  <si>
+    <t>CL - R&amp;F - Discussion DEC Phase 1 - Janvier 2019 - EN - PO005153</t>
+  </si>
+  <si>
+    <t>2338</t>
+  </si>
+  <si>
+    <t>247959</t>
+  </si>
+  <si>
+    <t>2998.59</t>
   </si>
   <si>
     <t>CL - Conversion - Discussion DEC Phase 2 - Mars 2019 - FR - PO005153</t>
   </si>
   <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>6314</t>
-  </si>
-  <si>
-    <t>64.11</t>
+    <t>1037</t>
+  </si>
+  <si>
+    <t>58616</t>
+  </si>
+  <si>
+    <t>1171.45</t>
   </si>
   <si>
     <t>CL - Conversion - Discussion DEC Phase 2 - Mars 2019 - EN - PO005153</t>
   </si>
   <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>6816</t>
-  </si>
-  <si>
-    <t>51.47</t>
+    <t>1021</t>
+  </si>
+  <si>
+    <t>70884</t>
+  </si>
+  <si>
+    <t>944.95</t>
   </si>
   <si>
     <t>CLM - Rentrée été - Cuisine - EN/FR - PO005283</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>3111</t>
-  </si>
-  <si>
-    <t>23.44</t>
+    <t>302</t>
+  </si>
+  <si>
+    <t>29045</t>
+  </si>
+  <si>
+    <t>334.96</t>
   </si>
   <si>
     <t>CLM - Rentrée été 2019 - Mtl - FR - PO005283</t>
   </si>
   <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>3380</t>
-  </si>
-  <si>
-    <t>61.26</t>
+    <t>763</t>
+  </si>
+  <si>
+    <t>32316</t>
+  </si>
+  <si>
+    <t>833.5</t>
   </si>
   <si>
     <t>CLM - Rentrée été 2019 - Mtl - EN - PO005283</t>
   </si>
   <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>4630</t>
-  </si>
-  <si>
-    <t>60.65</t>
+    <t>1016</t>
+  </si>
+  <si>
+    <t>36908</t>
+  </si>
+  <si>
+    <t>831.35</t>
   </si>
   <si>
     <t>CLM - Rentrée été 2019 - Laval - FR - PO005283</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>1299</t>
-  </si>
-  <si>
-    <t>23.19</t>
+    <t>298</t>
+  </si>
+  <si>
+    <t>11900</t>
+  </si>
+  <si>
+    <t>318.86</t>
   </si>
   <si>
     <t>CLM - Rentrée été 2019 - Laval - EN - PO005283</t>
   </si>
   <si>
-    <t>1216</t>
-  </si>
-  <si>
-    <t>15.25</t>
+    <t>158</t>
+  </si>
+  <si>
+    <t>11299</t>
+  </si>
+  <si>
+    <t>207.29</t>
   </si>
   <si>
     <t>eLearning - Rentrée été 2019 - FR - PO005154</t>
   </si>
   <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>936</t>
-  </si>
-  <si>
-    <t>102.8</t>
+    <t>704</t>
+  </si>
+  <si>
+    <t>30964</t>
+  </si>
+  <si>
+    <t>1097.46</t>
   </si>
   <si>
     <t>eLearning - Rentrée été 2019 - EN - PO005154</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>854</t>
-  </si>
-  <si>
-    <t>56.27</t>
-  </si>
-  <si>
-    <t>CL - Campagne permanente - Boost post</t>
-  </si>
-  <si>
-    <t>215</t>
-  </si>
-  <si>
-    <t>5073</t>
-  </si>
-  <si>
-    <t>68.5</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>5337</t>
-  </si>
-  <si>
-    <t>99.59</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>5455</t>
-  </si>
-  <si>
-    <t>60.44</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>6441</t>
-  </si>
-  <si>
-    <t>51.46</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>3762</t>
-  </si>
-  <si>
-    <t>22.92</t>
-  </si>
-  <si>
-    <t>3807</t>
-  </si>
-  <si>
-    <t>60.14</t>
-  </si>
-  <si>
-    <t>5326</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>1406</t>
-  </si>
-  <si>
-    <t>23.04</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>1320</t>
-  </si>
-  <si>
-    <t>15.29</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>5966</t>
-  </si>
-  <si>
-    <t>108.03</t>
-  </si>
-  <si>
-    <t>4266</t>
-  </si>
-  <si>
-    <t>59.85</t>
-  </si>
-  <si>
-    <t>334</t>
-  </si>
-  <si>
-    <t>7971</t>
-  </si>
-  <si>
-    <t>164.28</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>4674</t>
-  </si>
-  <si>
-    <t>96.86</t>
-  </si>
-  <si>
-    <t>6074</t>
-  </si>
-  <si>
-    <t>60.97</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>7648</t>
-  </si>
-  <si>
-    <t>47.98</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>3761</t>
-  </si>
-  <si>
-    <t>21.75</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>3237</t>
-  </si>
-  <si>
-    <t>57.39</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>4025</t>
-  </si>
-  <si>
-    <t>58.29</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>1263</t>
-  </si>
-  <si>
-    <t>22.03</t>
-  </si>
-  <si>
-    <t>1007</t>
-  </si>
-  <si>
-    <t>14.42</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>6375</t>
-  </si>
-  <si>
-    <t>108.78</t>
-  </si>
-  <si>
-    <t>6471</t>
-  </si>
-  <si>
-    <t>58.87</t>
-  </si>
-  <si>
-    <t>219</t>
-  </si>
-  <si>
-    <t>8379</t>
-  </si>
-  <si>
-    <t>167.22</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>4767</t>
-  </si>
-  <si>
-    <t>98.33</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>5631</t>
-  </si>
-  <si>
-    <t>61.15</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>7064</t>
-  </si>
-  <si>
-    <t>51.76</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>2926</t>
-  </si>
-  <si>
-    <t>23.58</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>2847</t>
-  </si>
-  <si>
-    <t>58.34</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>4038</t>
-  </si>
-  <si>
-    <t>58.96</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>1190</t>
-  </si>
-  <si>
-    <t>22.57</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>987</t>
-  </si>
-  <si>
-    <t>14.71</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>5610</t>
-  </si>
-  <si>
-    <t>111.02</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>4715</t>
-  </si>
-  <si>
-    <t>62.19</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>6776</t>
-  </si>
-  <si>
-    <t>105.14</t>
-  </si>
-  <si>
-    <t>7126</t>
-  </si>
-  <si>
-    <t>65.99</t>
-  </si>
-  <si>
-    <t>6108</t>
-  </si>
-  <si>
-    <t>51.84</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>3461</t>
-  </si>
-  <si>
-    <t>23.21</t>
-  </si>
-  <si>
-    <t>4687</t>
-  </si>
-  <si>
-    <t>61.55</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>4957</t>
-  </si>
-  <si>
-    <t>61.38</t>
-  </si>
-  <si>
-    <t>1727</t>
-  </si>
-  <si>
-    <t>24.06</t>
-  </si>
-  <si>
-    <t>1309</t>
-  </si>
-  <si>
-    <t>15.44</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>7590</t>
-  </si>
-  <si>
-    <t>116.63</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>4722</t>
-  </si>
-  <si>
-    <t>63.32</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>5514</t>
-  </si>
-  <si>
-    <t>102.01</t>
-  </si>
-  <si>
-    <t>6940</t>
-  </si>
-  <si>
-    <t>64.96</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>6228</t>
-  </si>
-  <si>
-    <t>51.34</t>
-  </si>
-  <si>
-    <t>4039</t>
-  </si>
-  <si>
-    <t>22.93</t>
-  </si>
-  <si>
-    <t>4813</t>
-  </si>
-  <si>
-    <t>60.78</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>4801</t>
-  </si>
-  <si>
-    <t>60.73</t>
-  </si>
-  <si>
-    <t>1631</t>
-  </si>
-  <si>
-    <t>23.09</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>1254</t>
-  </si>
-  <si>
-    <t>15.2</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>6348</t>
-  </si>
-  <si>
-    <t>112.51</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>4483</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>4818</t>
-  </si>
-  <si>
-    <t>94.47</t>
-  </si>
-  <si>
-    <t>7022</t>
-  </si>
-  <si>
-    <t>62.35</t>
-  </si>
-  <si>
-    <t>6944</t>
-  </si>
-  <si>
-    <t>49.14</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>3420</t>
-  </si>
-  <si>
-    <t>23.13</t>
-  </si>
-  <si>
-    <t>4366</t>
-  </si>
-  <si>
-    <t>58.97</t>
-  </si>
-  <si>
-    <t>4279</t>
-  </si>
-  <si>
-    <t>60.04</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>1588</t>
-  </si>
-  <si>
-    <t>22.25</t>
-  </si>
-  <si>
-    <t>1092</t>
-  </si>
-  <si>
-    <t>14.92</t>
-  </si>
-  <si>
-    <t>5332</t>
-  </si>
-  <si>
-    <t>108.95</t>
-  </si>
-  <si>
-    <t>3739</t>
-  </si>
-  <si>
-    <t>59.01</t>
+    <t>357</t>
+  </si>
+  <si>
+    <t>23383</t>
+  </si>
+  <si>
+    <t>645.46</t>
+  </si>
+  <si>
+    <t>ID - Campagne permanente - Boost post</t>
+  </si>
+  <si>
+    <t>1068</t>
+  </si>
+  <si>
+    <t>27800</t>
+  </si>
+  <si>
+    <t>300</t>
   </si>
   <si>
     <t>CID - Rentrée été 2019 - Mtl - FR - PO005310</t>
   </si>
   <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>8601</t>
-  </si>
-  <si>
-    <t>118.75</t>
+    <t>1291</t>
+  </si>
+  <si>
+    <t>58087</t>
+  </si>
+  <si>
+    <t>1686.91</t>
   </si>
   <si>
     <t>CID - Rentrée été 2019 - Laval - FR - PO005310</t>
   </si>
   <si>
-    <t>5430</t>
-  </si>
-  <si>
-    <t>80.17</t>
+    <t>923</t>
+  </si>
+  <si>
+    <t>35880</t>
+  </si>
+  <si>
+    <t>1108.24</t>
   </si>
   <si>
     <t>CID - Rentrée été 2019 - Mtl - EN - PO005310</t>
   </si>
   <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>2869</t>
-  </si>
-  <si>
-    <t>34.54</t>
+    <t>425</t>
+  </si>
+  <si>
+    <t>22709</t>
+  </si>
+  <si>
+    <t>490.14</t>
   </si>
   <si>
     <t>CID - Rentrée été 2019 - Laval - EN - PO005310</t>
   </si>
   <si>
-    <t>2529</t>
-  </si>
-  <si>
-    <t>32.1</t>
-  </si>
-  <si>
-    <t>8910</t>
-  </si>
-  <si>
-    <t>119.36</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>5578</t>
-  </si>
-  <si>
-    <t>78.11</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>2781</t>
-  </si>
-  <si>
-    <t>34.81</t>
-  </si>
-  <si>
-    <t>2921</t>
-  </si>
-  <si>
-    <t>31.17</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>8974</t>
-  </si>
-  <si>
-    <t>126.8</t>
-  </si>
-  <si>
-    <t>5093</t>
-  </si>
-  <si>
-    <t>80.82</t>
-  </si>
-  <si>
-    <t>2828</t>
-  </si>
-  <si>
-    <t>36.8</t>
-  </si>
-  <si>
-    <t>2573</t>
-  </si>
-  <si>
-    <t>32.35</t>
-  </si>
-  <si>
-    <t>7366</t>
-  </si>
-  <si>
-    <t>126.84</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>4222</t>
-  </si>
-  <si>
-    <t>78.25</t>
-  </si>
-  <si>
-    <t>2562</t>
-  </si>
-  <si>
-    <t>36.59</t>
-  </si>
-  <si>
-    <t>2053</t>
-  </si>
-  <si>
-    <t>31.1</t>
-  </si>
-  <si>
-    <t>7708</t>
-  </si>
-  <si>
-    <t>123.88</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>5132</t>
-  </si>
-  <si>
-    <t>81.41</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>35.94</t>
-  </si>
-  <si>
-    <t>2196</t>
-  </si>
-  <si>
-    <t>32.32</t>
-  </si>
-  <si>
-    <t>8118</t>
-  </si>
-  <si>
-    <t>126.62</t>
-  </si>
-  <si>
-    <t>4610</t>
-  </si>
-  <si>
-    <t>80.1</t>
-  </si>
-  <si>
-    <t>2611</t>
-  </si>
-  <si>
-    <t>36.46</t>
-  </si>
-  <si>
-    <t>2263</t>
-  </si>
-  <si>
-    <t>32.42</t>
-  </si>
-  <si>
-    <t>7456</t>
-  </si>
-  <si>
-    <t>119.33</t>
-  </si>
-  <si>
-    <t>4618</t>
-  </si>
-  <si>
-    <t>76.2</t>
-  </si>
-  <si>
-    <t>2517</t>
-  </si>
-  <si>
-    <t>34.93</t>
-  </si>
-  <si>
-    <t>2269</t>
-  </si>
-  <si>
-    <t>30.7</t>
+    <t>322</t>
+  </si>
+  <si>
+    <t>19171</t>
+  </si>
+  <si>
+    <t>443.66</t>
   </si>
   <si>
     <t>Cost</t>
@@ -886,9 +331,6 @@
   </si>
   <si>
     <t>SearchImpressionShare</t>
-  </si>
-  <si>
-    <t>Date</t>
   </si>
   <si>
     <t>2019-03-04</t>
@@ -1261,7 +703,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
+  <numFmts count="9">
     <numFmt formatCode="0;00" numFmtId="164"/>
     <numFmt formatCode="&quot;$&quot;#,##0" numFmtId="165"/>
     <numFmt formatCode="&quot;$&quot;#,##0.00" numFmtId="166"/>
@@ -1269,9 +711,10 @@
     <numFmt formatCode="\+0%;\-0%;0%" numFmtId="168"/>
     <numFmt formatCode="0%;\+0%;\-0%" numFmtId="169"/>
     <numFmt formatCode="m/d/yy;@" numFmtId="170"/>
-    <numFmt formatCode="$#,##0.00" numFmtId="171"/>
+    <numFmt formatCode="\$#,##0.00" numFmtId="171"/>
+    <numFmt formatCode="$#,##0.00" numFmtId="172"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1371,6 +814,13 @@
       <color rgb="FFFF0000"/>
       <sz val="22"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <i val="1"/>
+      <sz val="12"/>
     </font>
     <font>
       <b val="1"/>
@@ -2663,7 +2113,7 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="166">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="1" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -2923,6 +2373,8 @@
     <xf applyAlignment="1" borderId="0" fillId="11" fontId="12" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" readingOrder="1" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="171" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="11" fillId="4" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -2942,8 +2394,8 @@
     <xf applyAlignment="1" borderId="0" fillId="8" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="171" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="172" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -4811,7 +4263,7 @@
                   <v>43282</v>
                 </pt>
                 <pt idx="1">
-                  <v>43542</v>
+                  <v>43550</v>
                 </pt>
                 <pt idx="2">
                   <v>43646</v>
@@ -5092,7 +4544,7 @@
                   <v>43466</v>
                 </pt>
                 <pt idx="1">
-                  <v>43542</v>
+                  <v>43550</v>
                 </pt>
                 <pt idx="2">
                   <v>43555</v>
@@ -5373,7 +4825,7 @@
                   <v>43466</v>
                 </pt>
                 <pt idx="1">
-                  <v>43542</v>
+                  <v>43550</v>
                 </pt>
                 <pt idx="2">
                   <v>43555</v>
@@ -6189,7 +5641,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D102"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6197,1435 +5649,398 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="156" width="44"/>
+    <col customWidth="1" max="1" min="1" style="158" width="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="162" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="162" t="s">
+      <c r="B1" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="162" t="s">
+      <c r="C1" s="164" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="162" t="s">
+      <c r="D1" s="164" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="164" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="163" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="D2" s="165" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="165" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="163" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="163" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>16</v>
+      </c>
+      <c r="D4" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="163" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>20</v>
+      </c>
+      <c r="D5" s="165" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="165" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="163" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="163" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="D7" s="165" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="163" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="D8" s="165" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="163" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>35</v>
+      </c>
+      <c r="D9" s="165" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="163" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>39</v>
+      </c>
+      <c r="D10" s="165" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="163" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>43</v>
+      </c>
+      <c r="D11" s="165" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="163" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>47</v>
+      </c>
+      <c r="D12" s="165" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="163" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>51</v>
+      </c>
+      <c r="D13" s="165" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="163" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>55</v>
+      </c>
+      <c r="D14" s="165" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="163" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>59</v>
+      </c>
+      <c r="D15" s="165" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="163" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>63</v>
+      </c>
+      <c r="D16" s="165" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="163" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>67</v>
+      </c>
+      <c r="D17" s="165" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="163" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>71</v>
+      </c>
+      <c r="D18" s="165" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="163" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>75</v>
+      </c>
+      <c r="D19" s="165" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="C20" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="D20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>80</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C21" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="D21" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>84</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="B22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" t="s">
         <v>9</v>
       </c>
-      <c r="C22" t="s">
-        <v>71</v>
-      </c>
-      <c r="D22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="C23" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="D23" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" t="s">
-        <v>76</v>
-      </c>
-      <c r="C24" t="s">
-        <v>77</v>
-      </c>
-      <c r="D24" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" t="s">
-        <v>79</v>
-      </c>
-      <c r="D25" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" t="s">
-        <v>81</v>
-      </c>
-      <c r="C26" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" t="s">
-        <v>84</v>
-      </c>
-      <c r="C27" t="s">
-        <v>85</v>
-      </c>
-      <c r="D27" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" t="s">
-        <v>87</v>
-      </c>
-      <c r="C28" t="s">
-        <v>88</v>
-      </c>
-      <c r="D28" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>90</v>
-      </c>
-      <c r="C29" t="s">
-        <v>91</v>
-      </c>
-      <c r="D29" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>93</v>
-      </c>
-      <c r="C30" t="s">
-        <v>94</v>
-      </c>
-      <c r="D30" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" t="s">
-        <v>96</v>
-      </c>
-      <c r="D31" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" t="s">
-        <v>98</v>
-      </c>
-      <c r="C32" t="s">
-        <v>99</v>
-      </c>
-      <c r="D32" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="E23" t="s">
         <v>9</v>
-      </c>
-      <c r="C33" t="s">
-        <v>101</v>
-      </c>
-      <c r="D33" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34" t="s">
-        <v>103</v>
-      </c>
-      <c r="C34" t="s">
-        <v>104</v>
-      </c>
-      <c r="D34" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" t="s">
-        <v>106</v>
-      </c>
-      <c r="C35" t="s">
-        <v>107</v>
-      </c>
-      <c r="D35" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" t="s">
-        <v>109</v>
-      </c>
-      <c r="C36" t="s">
-        <v>110</v>
-      </c>
-      <c r="D36" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>12</v>
-      </c>
-      <c r="B37" t="s">
-        <v>112</v>
-      </c>
-      <c r="C37" t="s">
-        <v>113</v>
-      </c>
-      <c r="D37" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>16</v>
-      </c>
-      <c r="B38" t="s">
-        <v>115</v>
-      </c>
-      <c r="C38" t="s">
-        <v>116</v>
-      </c>
-      <c r="D38" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>20</v>
-      </c>
-      <c r="B39" t="s">
-        <v>118</v>
-      </c>
-      <c r="C39" t="s">
-        <v>119</v>
-      </c>
-      <c r="D39" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>24</v>
-      </c>
-      <c r="B40" t="s">
-        <v>121</v>
-      </c>
-      <c r="C40" t="s">
-        <v>122</v>
-      </c>
-      <c r="D40" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>28</v>
-      </c>
-      <c r="B41" t="s">
-        <v>124</v>
-      </c>
-      <c r="C41" t="s">
-        <v>125</v>
-      </c>
-      <c r="D41" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="s">
-        <v>32</v>
-      </c>
-      <c r="B42" t="s">
-        <v>127</v>
-      </c>
-      <c r="C42" t="s">
-        <v>128</v>
-      </c>
-      <c r="D42" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" t="s">
-        <v>35</v>
-      </c>
-      <c r="B43" t="s">
-        <v>130</v>
-      </c>
-      <c r="C43" t="s">
-        <v>131</v>
-      </c>
-      <c r="D43" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" t="s">
-        <v>39</v>
-      </c>
-      <c r="B44" t="s">
-        <v>133</v>
-      </c>
-      <c r="C44" t="s">
-        <v>134</v>
-      </c>
-      <c r="D44" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" t="s">
-        <v>4</v>
-      </c>
-      <c r="B45" t="s">
-        <v>136</v>
-      </c>
-      <c r="C45" t="s">
-        <v>137</v>
-      </c>
-      <c r="D45" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" t="s">
-        <v>8</v>
-      </c>
-      <c r="B46" t="s">
-        <v>50</v>
-      </c>
-      <c r="C46" t="s">
-        <v>139</v>
-      </c>
-      <c r="D46" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" t="s">
-        <v>12</v>
-      </c>
-      <c r="B47" t="s">
-        <v>112</v>
-      </c>
-      <c r="C47" t="s">
-        <v>141</v>
-      </c>
-      <c r="D47" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" t="s">
-        <v>16</v>
-      </c>
-      <c r="B48" t="s">
-        <v>143</v>
-      </c>
-      <c r="C48" t="s">
-        <v>144</v>
-      </c>
-      <c r="D48" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" t="s">
-        <v>20</v>
-      </c>
-      <c r="B49" t="s">
-        <v>81</v>
-      </c>
-      <c r="C49" t="s">
-        <v>146</v>
-      </c>
-      <c r="D49" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" t="s">
-        <v>24</v>
-      </c>
-      <c r="B50" t="s">
-        <v>148</v>
-      </c>
-      <c r="C50" t="s">
-        <v>149</v>
-      </c>
-      <c r="D50" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" t="s">
-        <v>28</v>
-      </c>
-      <c r="B51" t="s">
-        <v>143</v>
-      </c>
-      <c r="C51" t="s">
-        <v>151</v>
-      </c>
-      <c r="D51" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" t="s">
-        <v>32</v>
-      </c>
-      <c r="B52" t="s">
-        <v>56</v>
-      </c>
-      <c r="C52" t="s">
-        <v>153</v>
-      </c>
-      <c r="D52" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" t="s">
-        <v>35</v>
-      </c>
-      <c r="B53" t="s">
-        <v>155</v>
-      </c>
-      <c r="C53" t="s">
-        <v>156</v>
-      </c>
-      <c r="D53" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" t="s">
-        <v>39</v>
-      </c>
-      <c r="B54" t="s">
-        <v>158</v>
-      </c>
-      <c r="C54" t="s">
-        <v>159</v>
-      </c>
-      <c r="D54" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" t="s">
-        <v>4</v>
-      </c>
-      <c r="B55" t="s">
-        <v>161</v>
-      </c>
-      <c r="C55" t="s">
-        <v>162</v>
-      </c>
-      <c r="D55" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" t="s">
-        <v>8</v>
-      </c>
-      <c r="B56" t="s">
-        <v>21</v>
-      </c>
-      <c r="C56" t="s">
-        <v>164</v>
-      </c>
-      <c r="D56" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" t="s">
-        <v>12</v>
-      </c>
-      <c r="B57" t="s">
-        <v>166</v>
-      </c>
-      <c r="C57" t="s">
-        <v>167</v>
-      </c>
-      <c r="D57" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" t="s">
-        <v>16</v>
-      </c>
-      <c r="B58" t="s">
-        <v>124</v>
-      </c>
-      <c r="C58" t="s">
-        <v>169</v>
-      </c>
-      <c r="D58" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" t="s">
-        <v>20</v>
-      </c>
-      <c r="B59" t="s">
-        <v>81</v>
-      </c>
-      <c r="C59" t="s">
-        <v>171</v>
-      </c>
-      <c r="D59" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" t="s">
-        <v>24</v>
-      </c>
-      <c r="B60" t="s">
-        <v>173</v>
-      </c>
-      <c r="C60" t="s">
-        <v>174</v>
-      </c>
-      <c r="D60" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" t="s">
-        <v>28</v>
-      </c>
-      <c r="B61" t="s">
-        <v>93</v>
-      </c>
-      <c r="C61" t="s">
-        <v>176</v>
-      </c>
-      <c r="D61" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" t="s">
-        <v>32</v>
-      </c>
-      <c r="B62" t="s">
-        <v>178</v>
-      </c>
-      <c r="C62" t="s">
-        <v>179</v>
-      </c>
-      <c r="D62" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" t="s">
-        <v>35</v>
-      </c>
-      <c r="B63" t="s">
-        <v>181</v>
-      </c>
-      <c r="C63" t="s">
-        <v>182</v>
-      </c>
-      <c r="D63" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" t="s">
-        <v>39</v>
-      </c>
-      <c r="B64" t="s">
-        <v>184</v>
-      </c>
-      <c r="C64" t="s">
-        <v>185</v>
-      </c>
-      <c r="D64" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" t="s">
-        <v>4</v>
-      </c>
-      <c r="B65" t="s">
-        <v>187</v>
-      </c>
-      <c r="C65" t="s">
-        <v>188</v>
-      </c>
-      <c r="D65" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" t="s">
-        <v>8</v>
-      </c>
-      <c r="B66" t="s">
-        <v>50</v>
-      </c>
-      <c r="C66" t="s">
-        <v>190</v>
-      </c>
-      <c r="D66" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" t="s">
-        <v>12</v>
-      </c>
-      <c r="B67" t="s">
-        <v>184</v>
-      </c>
-      <c r="C67" t="s">
-        <v>192</v>
-      </c>
-      <c r="D67" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" t="s">
-        <v>16</v>
-      </c>
-      <c r="B68" t="s">
-        <v>194</v>
-      </c>
-      <c r="C68" t="s">
-        <v>195</v>
-      </c>
-      <c r="D68" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" t="s">
-        <v>20</v>
-      </c>
-      <c r="B69" t="s">
-        <v>173</v>
-      </c>
-      <c r="C69" t="s">
-        <v>197</v>
-      </c>
-      <c r="D69" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" t="s">
-        <v>24</v>
-      </c>
-      <c r="B70" t="s">
-        <v>13</v>
-      </c>
-      <c r="C70" t="s">
-        <v>199</v>
-      </c>
-      <c r="D70" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" t="s">
-        <v>28</v>
-      </c>
-      <c r="B71" t="s">
-        <v>201</v>
-      </c>
-      <c r="C71" t="s">
-        <v>202</v>
-      </c>
-      <c r="D71" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" t="s">
-        <v>32</v>
-      </c>
-      <c r="B72" t="s">
-        <v>201</v>
-      </c>
-      <c r="C72" t="s">
-        <v>204</v>
-      </c>
-      <c r="D72" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" t="s">
-        <v>35</v>
-      </c>
-      <c r="B73" t="s">
-        <v>25</v>
-      </c>
-      <c r="C73" t="s">
-        <v>206</v>
-      </c>
-      <c r="D73" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" t="s">
-        <v>39</v>
-      </c>
-      <c r="B74" t="s">
-        <v>118</v>
-      </c>
-      <c r="C74" t="s">
-        <v>208</v>
-      </c>
-      <c r="D74" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" t="s">
-        <v>210</v>
-      </c>
-      <c r="B75" t="s">
-        <v>211</v>
-      </c>
-      <c r="C75" t="s">
-        <v>212</v>
-      </c>
-      <c r="D75" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" t="s">
-        <v>214</v>
-      </c>
-      <c r="B76" t="s">
-        <v>121</v>
-      </c>
-      <c r="C76" t="s">
-        <v>215</v>
-      </c>
-      <c r="D76" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" t="s">
-        <v>217</v>
-      </c>
-      <c r="B77" t="s">
-        <v>218</v>
-      </c>
-      <c r="C77" t="s">
-        <v>219</v>
-      </c>
-      <c r="D77" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" t="s">
-        <v>221</v>
-      </c>
-      <c r="B78" t="s">
-        <v>84</v>
-      </c>
-      <c r="C78" t="s">
-        <v>222</v>
-      </c>
-      <c r="D78" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" t="s">
-        <v>210</v>
-      </c>
-      <c r="B79" t="s">
-        <v>181</v>
-      </c>
-      <c r="C79" t="s">
-        <v>224</v>
-      </c>
-      <c r="D79" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" t="s">
-        <v>214</v>
-      </c>
-      <c r="B80" t="s">
-        <v>226</v>
-      </c>
-      <c r="C80" t="s">
-        <v>227</v>
-      </c>
-      <c r="D80" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" t="s">
-        <v>217</v>
-      </c>
-      <c r="B81" t="s">
-        <v>229</v>
-      </c>
-      <c r="C81" t="s">
-        <v>230</v>
-      </c>
-      <c r="D81" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" t="s">
-        <v>221</v>
-      </c>
-      <c r="B82" t="s">
-        <v>229</v>
-      </c>
-      <c r="C82" t="s">
-        <v>232</v>
-      </c>
-      <c r="D82" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" t="s">
-        <v>210</v>
-      </c>
-      <c r="B83" t="s">
-        <v>234</v>
-      </c>
-      <c r="C83" t="s">
-        <v>235</v>
-      </c>
-      <c r="D83" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" t="s">
-        <v>214</v>
-      </c>
-      <c r="B84" t="s">
-        <v>68</v>
-      </c>
-      <c r="C84" t="s">
-        <v>237</v>
-      </c>
-      <c r="D84" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" t="s">
-        <v>217</v>
-      </c>
-      <c r="B85" t="s">
-        <v>56</v>
-      </c>
-      <c r="C85" t="s">
-        <v>239</v>
-      </c>
-      <c r="D85" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" t="s">
-        <v>221</v>
-      </c>
-      <c r="B86" t="s">
-        <v>143</v>
-      </c>
-      <c r="C86" t="s">
-        <v>241</v>
-      </c>
-      <c r="D86" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" t="s">
-        <v>210</v>
-      </c>
-      <c r="B87" t="s">
-        <v>211</v>
-      </c>
-      <c r="C87" t="s">
-        <v>243</v>
-      </c>
-      <c r="D87" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" t="s">
-        <v>214</v>
-      </c>
-      <c r="B88" t="s">
-        <v>245</v>
-      </c>
-      <c r="C88" t="s">
-        <v>246</v>
-      </c>
-      <c r="D88" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" t="s">
-        <v>217</v>
-      </c>
-      <c r="B89" t="s">
-        <v>124</v>
-      </c>
-      <c r="C89" t="s">
-        <v>248</v>
-      </c>
-      <c r="D89" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" t="s">
-        <v>221</v>
-      </c>
-      <c r="B90" t="s">
-        <v>93</v>
-      </c>
-      <c r="C90" t="s">
-        <v>250</v>
-      </c>
-      <c r="D90" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91" t="s">
-        <v>210</v>
-      </c>
-      <c r="B91" t="s">
-        <v>187</v>
-      </c>
-      <c r="C91" t="s">
-        <v>252</v>
-      </c>
-      <c r="D91" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" t="s">
-        <v>214</v>
-      </c>
-      <c r="B92" t="s">
-        <v>254</v>
-      </c>
-      <c r="C92" t="s">
-        <v>255</v>
-      </c>
-      <c r="D92" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93" t="s">
-        <v>217</v>
-      </c>
-      <c r="B93" t="s">
-        <v>257</v>
-      </c>
-      <c r="C93" t="s">
-        <v>258</v>
-      </c>
-      <c r="D93" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" t="s">
-        <v>221</v>
-      </c>
-      <c r="B94" t="s">
-        <v>143</v>
-      </c>
-      <c r="C94" t="s">
-        <v>260</v>
-      </c>
-      <c r="D94" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" t="s">
-        <v>210</v>
-      </c>
-      <c r="B95" t="s">
-        <v>121</v>
-      </c>
-      <c r="C95" t="s">
-        <v>262</v>
-      </c>
-      <c r="D95" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" t="s">
-        <v>214</v>
-      </c>
-      <c r="B96" t="s">
-        <v>81</v>
-      </c>
-      <c r="C96" t="s">
-        <v>264</v>
-      </c>
-      <c r="D96" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97" t="s">
-        <v>217</v>
-      </c>
-      <c r="B97" t="s">
-        <v>124</v>
-      </c>
-      <c r="C97" t="s">
-        <v>266</v>
-      </c>
-      <c r="D97" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" t="s">
-        <v>221</v>
-      </c>
-      <c r="B98" t="s">
-        <v>124</v>
-      </c>
-      <c r="C98" t="s">
-        <v>268</v>
-      </c>
-      <c r="D98" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" t="s">
-        <v>210</v>
-      </c>
-      <c r="B99" t="s">
-        <v>234</v>
-      </c>
-      <c r="C99" t="s">
-        <v>270</v>
-      </c>
-      <c r="D99" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" t="s">
-        <v>214</v>
-      </c>
-      <c r="B100" t="s">
-        <v>148</v>
-      </c>
-      <c r="C100" t="s">
-        <v>272</v>
-      </c>
-      <c r="D100" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101" t="s">
-        <v>217</v>
-      </c>
-      <c r="B101" t="s">
-        <v>62</v>
-      </c>
-      <c r="C101" t="s">
-        <v>274</v>
-      </c>
-      <c r="D101" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102" t="s">
-        <v>221</v>
-      </c>
-      <c r="B102" t="s">
-        <v>201</v>
-      </c>
-      <c r="C102" t="s">
-        <v>276</v>
-      </c>
-      <c r="D102" t="s">
-        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -7665,40 +6080,40 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="156" width="7.140625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="156" width="13.7109375"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="156" width="6"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" style="156" width="18"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="156" width="14"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" style="156" width="24.42578125"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="156" width="8.28515625"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" style="156" width="10.42578125"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="158" width="7.140625"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="158" width="13.7109375"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="158" width="6"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="158" width="18"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="158" width="14"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="158" width="24.42578125"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="158" width="8.28515625"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="158" width="10.42578125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>278</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s">
-        <v>279</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s">
-        <v>280</v>
+        <v>95</v>
       </c>
       <c r="D1" t="s">
-        <v>281</v>
+        <v>96</v>
       </c>
       <c r="E1" t="s">
-        <v>282</v>
+        <v>97</v>
       </c>
       <c r="F1" t="s">
-        <v>283</v>
+        <v>98</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
       </c>
       <c r="H1" t="s">
-        <v>284</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -7724,7 +6139,7 @@
         <v>108</v>
       </c>
       <c r="H2" t="s">
-        <v>285</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -7750,7 +6165,7 @@
         <v>107</v>
       </c>
       <c r="H3" t="s">
-        <v>286</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -7776,7 +6191,7 @@
         <v>83</v>
       </c>
       <c r="H4" t="s">
-        <v>287</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -7802,7 +6217,7 @@
         <v>99</v>
       </c>
       <c r="H5" t="s">
-        <v>288</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -7828,7 +6243,7 @@
         <v>97</v>
       </c>
       <c r="H6" t="s">
-        <v>289</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -7854,7 +6269,7 @@
         <v>130</v>
       </c>
       <c r="H7" t="s">
-        <v>290</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -7880,7 +6295,7 @@
         <v>90</v>
       </c>
       <c r="H8" t="s">
-        <v>291</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -7912,43 +6327,43 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0" outlineLevelRow="2"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="156" width="8"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="156" width="13.7109375"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="156" width="6"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" style="156" width="18"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="156" width="14"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" style="156" width="24.42578125"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="156" width="8.28515625"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="158" width="8"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="158" width="13.7109375"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="158" width="6"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="158" width="18"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="158" width="14"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="158" width="24.42578125"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="158" width="8.28515625"/>
     <col bestFit="1" customWidth="1" max="8" min="8" style="96" width="10.42578125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>278</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s">
-        <v>279</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s">
-        <v>280</v>
+        <v>95</v>
       </c>
       <c r="D1" t="s">
-        <v>281</v>
+        <v>96</v>
       </c>
       <c r="E1" t="s">
-        <v>282</v>
+        <v>97</v>
       </c>
       <c r="F1" t="s">
-        <v>283</v>
+        <v>98</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="96" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row outlineLevel="2" r="2" s="156" spans="1:8">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="2" r="2" s="158" spans="1:8">
       <c r="A2" t="n">
         <v>543.52</v>
       </c>
@@ -7971,10 +6386,10 @@
         <v>178</v>
       </c>
       <c r="H2" s="96" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row outlineLevel="2" r="3" s="156" spans="1:8">
+        <v>106</v>
+      </c>
+    </row>
+    <row outlineLevel="2" r="3" s="158" spans="1:8">
       <c r="A3" t="n">
         <v>525.48</v>
       </c>
@@ -7997,10 +6412,10 @@
         <v>179</v>
       </c>
       <c r="H3" s="96" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row outlineLevel="2" r="4" s="156" spans="1:8">
+        <v>107</v>
+      </c>
+    </row>
+    <row outlineLevel="2" r="4" s="158" spans="1:8">
       <c r="A4" t="n">
         <v>548.12</v>
       </c>
@@ -8023,10 +6438,10 @@
         <v>178</v>
       </c>
       <c r="H4" s="96" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row outlineLevel="2" r="5" s="156" spans="1:8">
+        <v>108</v>
+      </c>
+    </row>
+    <row outlineLevel="2" r="5" s="158" spans="1:8">
       <c r="A5" t="n">
         <v>246.56</v>
       </c>
@@ -8049,10 +6464,10 @@
         <v>106</v>
       </c>
       <c r="H5" s="96" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row outlineLevel="2" r="6" s="156" spans="1:8">
+        <v>109</v>
+      </c>
+    </row>
+    <row outlineLevel="2" r="6" s="158" spans="1:8">
       <c r="A6" t="n">
         <v>256.04</v>
       </c>
@@ -8075,10 +6490,10 @@
         <v>115</v>
       </c>
       <c r="H6" s="96" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row outlineLevel="2" r="7" s="156" spans="1:8">
+        <v>110</v>
+      </c>
+    </row>
+    <row outlineLevel="2" r="7" s="158" spans="1:8">
       <c r="A7" t="n">
         <v>254.81</v>
       </c>
@@ -8101,10 +6516,10 @@
         <v>109</v>
       </c>
       <c r="H7" s="96" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row outlineLevel="2" r="8" s="156" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row outlineLevel="2" r="8" s="158" spans="1:8">
       <c r="A8" t="n">
         <v>258.06</v>
       </c>
@@ -8127,7 +6542,7 @@
         <v>108</v>
       </c>
       <c r="H8" s="96" t="s">
-        <v>298</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -8153,7 +6568,7 @@
         <v>91</v>
       </c>
       <c r="H9" s="96" t="s">
-        <v>299</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -8179,7 +6594,7 @@
         <v>70</v>
       </c>
       <c r="H10" s="96" t="s">
-        <v>300</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -8205,7 +6620,7 @@
         <v>94</v>
       </c>
       <c r="H11" s="96" t="s">
-        <v>301</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -8231,7 +6646,7 @@
         <v>118</v>
       </c>
       <c r="H12" s="96" t="s">
-        <v>302</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -8257,7 +6672,7 @@
         <v>101</v>
       </c>
       <c r="H13" s="96" t="s">
-        <v>303</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -8283,7 +6698,7 @@
         <v>113</v>
       </c>
       <c r="H14" s="96" t="s">
-        <v>304</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -8309,7 +6724,7 @@
         <v>76</v>
       </c>
       <c r="H15" s="96" t="s">
-        <v>305</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -8335,7 +6750,7 @@
         <v>96</v>
       </c>
       <c r="H16" s="96" t="s">
-        <v>306</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -8361,7 +6776,7 @@
         <v>70</v>
       </c>
       <c r="H17" s="96" t="s">
-        <v>307</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -8387,7 +6802,7 @@
         <v>92</v>
       </c>
       <c r="H18" s="96" t="s">
-        <v>308</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -8413,7 +6828,7 @@
         <v>85</v>
       </c>
       <c r="H19" s="96" t="s">
-        <v>309</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -8439,7 +6854,7 @@
         <v>121</v>
       </c>
       <c r="H20" s="96" t="s">
-        <v>310</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -8465,7 +6880,7 @@
         <v>107</v>
       </c>
       <c r="H21" s="96" t="s">
-        <v>311</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -8491,7 +6906,7 @@
         <v>132</v>
       </c>
       <c r="H22" s="96" t="s">
-        <v>312</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -8517,7 +6932,7 @@
         <v>91</v>
       </c>
       <c r="H23" s="96" t="s">
-        <v>313</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -8543,7 +6958,7 @@
         <v>74</v>
       </c>
       <c r="H24" s="96" t="s">
-        <v>314</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -8569,7 +6984,7 @@
         <v>81</v>
       </c>
       <c r="H25" s="96" t="s">
-        <v>315</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -8595,7 +7010,7 @@
         <v>115</v>
       </c>
       <c r="H26" s="96" t="s">
-        <v>316</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -8621,7 +7036,7 @@
         <v>124</v>
       </c>
       <c r="H27" s="96" t="s">
-        <v>317</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -8647,7 +7062,7 @@
         <v>113</v>
       </c>
       <c r="H28" s="96" t="s">
-        <v>318</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -8673,7 +7088,7 @@
         <v>97</v>
       </c>
       <c r="H29" s="96" t="s">
-        <v>319</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -8705,40 +7120,40 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="156" width="7.140625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="156" width="13.7109375"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="156" width="6"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" style="156" width="18"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="156" width="14"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" style="156" width="24.42578125"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="156" width="8.28515625"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" style="156" width="10.42578125"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="158" width="7.140625"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="158" width="13.7109375"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="158" width="6"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="158" width="18"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="158" width="14"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="158" width="24.42578125"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="158" width="8.28515625"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="158" width="10.42578125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>278</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s">
-        <v>279</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s">
-        <v>280</v>
+        <v>95</v>
       </c>
       <c r="D1" t="s">
-        <v>281</v>
+        <v>96</v>
       </c>
       <c r="E1" t="s">
-        <v>282</v>
+        <v>97</v>
       </c>
       <c r="F1" t="s">
-        <v>283</v>
+        <v>98</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
       </c>
       <c r="H1" t="s">
-        <v>284</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -8764,7 +7179,7 @@
         <v>39</v>
       </c>
       <c r="H2" t="s">
-        <v>285</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -8790,7 +7205,7 @@
         <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>289</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -8816,7 +7231,7 @@
         <v>28</v>
       </c>
       <c r="H4" t="s">
-        <v>287</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -8842,7 +7257,7 @@
         <v>40</v>
       </c>
       <c r="H5" t="s">
-        <v>291</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -8868,7 +7283,7 @@
         <v>31</v>
       </c>
       <c r="H6" t="s">
-        <v>288</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -8894,7 +7309,7 @@
         <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>290</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -8920,7 +7335,7 @@
         <v>29</v>
       </c>
       <c r="H8" t="s">
-        <v>286</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -8952,41 +7367,41 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="156" width="8"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="156" width="13.7109375"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="156" width="6"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" style="156" width="18"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="156" width="14"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" style="156" width="24.42578125"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="156" width="8.28515625"/>
-    <col customWidth="1" max="8" min="8" style="156" width="10.42578125"/>
-    <col bestFit="1" customWidth="1" max="9" min="9" style="156" width="7.42578125"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="158" width="8"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="158" width="13.7109375"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="158" width="6"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="158" width="18"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="158" width="14"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="158" width="24.42578125"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="158" width="8.28515625"/>
+    <col customWidth="1" max="8" min="8" style="158" width="10.42578125"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" style="158" width="7.42578125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>278</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s">
-        <v>279</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s">
-        <v>280</v>
+        <v>95</v>
       </c>
       <c r="D1" t="s">
-        <v>281</v>
+        <v>96</v>
       </c>
       <c r="E1" t="s">
-        <v>282</v>
+        <v>97</v>
       </c>
       <c r="F1" t="s">
-        <v>283</v>
+        <v>98</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
       </c>
       <c r="H1" t="s">
-        <v>284</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -9012,7 +7427,7 @@
         <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>293</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -9038,7 +7453,7 @@
         <v>55</v>
       </c>
       <c r="H3" t="s">
-        <v>295</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -9064,7 +7479,7 @@
         <v>60</v>
       </c>
       <c r="H4" t="s">
-        <v>297</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -9090,7 +7505,7 @@
         <v>82</v>
       </c>
       <c r="H5" t="s">
-        <v>303</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -9116,7 +7531,7 @@
         <v>38</v>
       </c>
       <c r="H6" t="s">
-        <v>304</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -9142,7 +7557,7 @@
         <v>26</v>
       </c>
       <c r="H7" t="s">
-        <v>305</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -9168,7 +7583,7 @@
         <v>55</v>
       </c>
       <c r="H8" t="s">
-        <v>318</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -9194,7 +7609,7 @@
         <v>44</v>
       </c>
       <c r="H9" t="s">
-        <v>319</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -9220,7 +7635,7 @@
         <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>308</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -9246,7 +7661,7 @@
         <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>312</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -9272,7 +7687,7 @@
         <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>294</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -9298,7 +7713,7 @@
         <v>42</v>
       </c>
       <c r="H13" t="s">
-        <v>307</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -9324,7 +7739,7 @@
         <v>79</v>
       </c>
       <c r="H14" t="s">
-        <v>310</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -9350,7 +7765,7 @@
         <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>292</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -9376,7 +7791,7 @@
         <v>69</v>
       </c>
       <c r="H16" t="s">
-        <v>309</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -9402,7 +7817,7 @@
         <v>49</v>
       </c>
       <c r="H17" t="s">
-        <v>311</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -9428,7 +7843,7 @@
         <v>44</v>
       </c>
       <c r="H18" t="s">
-        <v>315</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -9454,7 +7869,7 @@
         <v>59</v>
       </c>
       <c r="H19" t="s">
-        <v>316</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -9480,7 +7895,7 @@
         <v>30</v>
       </c>
       <c r="H20" t="s">
-        <v>306</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -9506,7 +7921,7 @@
         <v>36</v>
       </c>
       <c r="H21" t="s">
-        <v>313</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -9532,7 +7947,7 @@
         <v>63</v>
       </c>
       <c r="H22" t="s">
-        <v>302</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -9558,7 +7973,7 @@
         <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>301</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -9584,7 +7999,7 @@
         <v>43</v>
       </c>
       <c r="H24" t="s">
-        <v>299</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -9610,7 +8025,7 @@
         <v>60</v>
       </c>
       <c r="H25" t="s">
-        <v>298</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -9636,7 +8051,7 @@
         <v>48</v>
       </c>
       <c r="H26" t="s">
-        <v>300</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -9662,7 +8077,7 @@
         <v>61</v>
       </c>
       <c r="H27" t="s">
-        <v>296</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -9688,7 +8103,7 @@
         <v>41</v>
       </c>
       <c r="H28" t="s">
-        <v>314</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -9714,7 +8129,7 @@
         <v>48</v>
       </c>
       <c r="H29" t="s">
-        <v>317</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -9742,40 +8157,40 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="156" width="8"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="156" width="13.7109375"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="156" width="5.85546875"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" style="156" width="18"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="156" width="14"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" style="156" width="24.42578125"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="156" width="8.28515625"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" style="156" width="10.42578125"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="158" width="8"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="158" width="13.7109375"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="158" width="5.85546875"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="158" width="18"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="158" width="14"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="158" width="24.42578125"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="158" width="8.28515625"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="158" width="10.42578125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>278</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s">
-        <v>279</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s">
-        <v>280</v>
+        <v>95</v>
       </c>
       <c r="D1" t="s">
-        <v>281</v>
+        <v>96</v>
       </c>
       <c r="E1" t="s">
-        <v>282</v>
+        <v>97</v>
       </c>
       <c r="F1" t="s">
-        <v>283</v>
+        <v>98</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
       </c>
       <c r="H1" t="s">
-        <v>284</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -9801,7 +8216,7 @@
         <v>481</v>
       </c>
       <c r="H2" t="s">
-        <v>285</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -9827,7 +8242,7 @@
         <v>1181</v>
       </c>
       <c r="H3" t="s">
-        <v>291</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -9853,7 +8268,7 @@
         <v>971</v>
       </c>
       <c r="H4" t="s">
-        <v>286</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -9879,7 +8294,7 @@
         <v>867</v>
       </c>
       <c r="H5" t="s">
-        <v>289</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -9905,7 +8320,7 @@
         <v>851</v>
       </c>
       <c r="H6" t="s">
-        <v>287</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -9931,7 +8346,7 @@
         <v>922</v>
       </c>
       <c r="H7" t="s">
-        <v>288</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -9957,7 +8372,7 @@
         <v>2203</v>
       </c>
       <c r="H8" t="s">
-        <v>290</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -9989,40 +8404,40 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="156" width="8"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="156" width="13.7109375"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="156" width="5.85546875"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" style="156" width="18"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="156" width="14"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" style="156" width="24.42578125"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="156" width="8.28515625"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" style="156" width="10.42578125"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="158" width="8"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="158" width="13.7109375"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="158" width="5.85546875"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="158" width="18"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="158" width="14"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="158" width="24.42578125"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="158" width="8.28515625"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="158" width="10.42578125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>278</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s">
-        <v>279</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s">
-        <v>280</v>
+        <v>95</v>
       </c>
       <c r="D1" t="s">
-        <v>281</v>
+        <v>96</v>
       </c>
       <c r="E1" t="s">
-        <v>282</v>
+        <v>97</v>
       </c>
       <c r="F1" t="s">
-        <v>283</v>
+        <v>98</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
       </c>
       <c r="H1" t="s">
-        <v>284</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -10045,7 +8460,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>292</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -10068,7 +8483,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>294</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -10091,7 +8506,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>293</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -10117,7 +8532,7 @@
         <v>616</v>
       </c>
       <c r="H5" t="s">
-        <v>316</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -10143,7 +8558,7 @@
         <v>500</v>
       </c>
       <c r="H6" t="s">
-        <v>298</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -10169,7 +8584,7 @@
         <v>603</v>
       </c>
       <c r="H7" t="s">
-        <v>304</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -10195,7 +8610,7 @@
         <v>529</v>
       </c>
       <c r="H8" t="s">
-        <v>309</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -10221,7 +8636,7 @@
         <v>689</v>
       </c>
       <c r="H9" t="s">
-        <v>296</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -10247,7 +8662,7 @@
         <v>521</v>
       </c>
       <c r="H10" t="s">
-        <v>318</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -10273,7 +8688,7 @@
         <v>381</v>
       </c>
       <c r="H11" t="s">
-        <v>314</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -10299,7 +8714,7 @@
         <v>404</v>
       </c>
       <c r="H12" t="s">
-        <v>308</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -10325,7 +8740,7 @@
         <v>348</v>
       </c>
       <c r="H13" t="s">
-        <v>307</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -10351,7 +8766,7 @@
         <v>453</v>
       </c>
       <c r="H14" t="s">
-        <v>299</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -10377,7 +8792,7 @@
         <v>472</v>
       </c>
       <c r="H15" t="s">
-        <v>313</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -10403,7 +8818,7 @@
         <v>563</v>
       </c>
       <c r="H16" t="s">
-        <v>312</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -10429,7 +8844,7 @@
         <v>520</v>
       </c>
       <c r="H17" t="s">
-        <v>295</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -10455,7 +8870,7 @@
         <v>532</v>
       </c>
       <c r="H18" t="s">
-        <v>297</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -10481,7 +8896,7 @@
         <v>567</v>
       </c>
       <c r="H19" t="s">
-        <v>310</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -10507,7 +8922,7 @@
         <v>523</v>
       </c>
       <c r="H20" t="s">
-        <v>311</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -10533,7 +8948,7 @@
         <v>418</v>
       </c>
       <c r="H21" t="s">
-        <v>315</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -10559,7 +8974,7 @@
         <v>535</v>
       </c>
       <c r="H22" t="s">
-        <v>317</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -10585,7 +9000,7 @@
         <v>531</v>
       </c>
       <c r="H23" t="s">
-        <v>302</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -10611,7 +9026,7 @@
         <v>371</v>
       </c>
       <c r="H24" t="s">
-        <v>305</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -10637,7 +9052,7 @@
         <v>343</v>
       </c>
       <c r="H25" t="s">
-        <v>300</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -10663,7 +9078,7 @@
         <v>381</v>
       </c>
       <c r="H26" t="s">
-        <v>301</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -10689,7 +9104,7 @@
         <v>529</v>
       </c>
       <c r="H27" t="s">
-        <v>319</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -10715,7 +9130,7 @@
         <v>446</v>
       </c>
       <c r="H28" t="s">
-        <v>306</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -10741,7 +9156,7 @@
         <v>589</v>
       </c>
       <c r="H29" t="s">
-        <v>303</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -10773,80 +9188,80 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="156" width="7.28515625"/>
-    <col customWidth="1" max="2" min="2" style="156" width="29.42578125"/>
-    <col customWidth="1" max="14" min="3" style="156" width="16.7109375"/>
-    <col customWidth="1" max="15" min="15" style="156" width="17.5703125"/>
-    <col customWidth="1" max="16" min="16" style="156" width="34.85546875"/>
-    <col customWidth="1" max="17" min="17" style="156" width="16.140625"/>
-    <col customWidth="1" max="18" min="18" style="156" width="15"/>
-    <col customWidth="1" max="19" min="19" style="156" width="17.28515625"/>
-    <col customWidth="1" max="20" min="20" style="156" width="16.85546875"/>
-    <col customWidth="1" max="26" min="21" style="156" width="12.42578125"/>
-    <col customWidth="1" max="27" min="27" style="156" width="13.140625"/>
-    <col customWidth="1" max="28" min="28" style="156" width="12.42578125"/>
-    <col customWidth="1" max="32" min="29" style="156" width="10.7109375"/>
-    <col customWidth="1" max="33" min="33" style="156" width="15.7109375"/>
-    <col customWidth="1" max="34" min="34" style="156" width="35.85546875"/>
-    <col customWidth="1" max="35" min="35" style="156" width="10.28515625"/>
-    <col customWidth="1" max="36" min="36" style="156" width="18.42578125"/>
+    <col customWidth="1" max="1" min="1" style="158" width="7.28515625"/>
+    <col customWidth="1" max="2" min="2" style="158" width="29.42578125"/>
+    <col customWidth="1" max="14" min="3" style="158" width="16.7109375"/>
+    <col customWidth="1" max="15" min="15" style="158" width="17.5703125"/>
+    <col customWidth="1" max="16" min="16" style="158" width="34.85546875"/>
+    <col customWidth="1" max="17" min="17" style="158" width="16.140625"/>
+    <col customWidth="1" max="18" min="18" style="158" width="15"/>
+    <col customWidth="1" max="19" min="19" style="158" width="17.28515625"/>
+    <col customWidth="1" max="20" min="20" style="158" width="16.85546875"/>
+    <col customWidth="1" max="26" min="21" style="158" width="12.42578125"/>
+    <col customWidth="1" max="27" min="27" style="158" width="13.140625"/>
+    <col customWidth="1" max="28" min="28" style="158" width="12.42578125"/>
+    <col customWidth="1" max="32" min="29" style="158" width="10.7109375"/>
+    <col customWidth="1" max="33" min="33" style="158" width="15.7109375"/>
+    <col customWidth="1" max="34" min="34" style="158" width="35.85546875"/>
+    <col customWidth="1" max="35" min="35" style="158" width="10.28515625"/>
+    <col customWidth="1" max="36" min="36" style="158" width="18.42578125"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="41.25" r="2" s="156" spans="1:34">
-      <c r="B2" s="161" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="3" s="156" spans="1:34" thickBot="1">
+    <row customHeight="1" ht="41.25" r="2" s="158" spans="1:34">
+      <c r="B2" s="163" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="30" r="3" s="158" spans="1:34" thickBot="1">
       <c r="H3" s="25" t="n"/>
       <c r="I3" s="25" t="n"/>
       <c r="L3" s="25" t="n"/>
     </row>
-    <row customHeight="1" ht="34.5" r="4" s="156" spans="1:34" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="34.5" r="4" s="158" spans="1:34" thickBot="1" thickTop="1">
       <c r="B4" s="27" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>321</v>
+        <v>135</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>322</v>
+        <v>136</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>323</v>
+        <v>137</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>324</v>
+        <v>138</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>325</v>
+        <v>139</v>
       </c>
       <c r="H4" s="26" t="s">
-        <v>326</v>
+        <v>140</v>
       </c>
       <c r="I4" s="26" t="s">
-        <v>327</v>
+        <v>141</v>
       </c>
       <c r="J4" s="36" t="s">
-        <v>328</v>
+        <v>142</v>
       </c>
       <c r="K4" s="26" t="s">
-        <v>329</v>
+        <v>143</v>
       </c>
       <c r="L4" s="26" t="s">
-        <v>330</v>
+        <v>144</v>
       </c>
       <c r="M4" s="26" t="s">
-        <v>331</v>
+        <v>145</v>
       </c>
       <c r="N4" s="26" t="s">
-        <v>332</v>
+        <v>146</v>
       </c>
       <c r="O4" s="37" t="s">
-        <v>333</v>
+        <v>147</v>
       </c>
       <c r="Q4" s="38" t="s">
-        <v>334</v>
+        <v>148</v>
       </c>
       <c r="R4" s="28" t="n"/>
       <c r="S4" s="30" t="n"/>
@@ -10854,48 +9269,48 @@
         <v>3</v>
       </c>
       <c r="U4" s="26" t="s">
-        <v>335</v>
+        <v>149</v>
       </c>
       <c r="V4" s="36" t="s">
-        <v>336</v>
+        <v>150</v>
       </c>
       <c r="W4" s="36" t="s">
-        <v>337</v>
+        <v>151</v>
       </c>
       <c r="X4" s="26" t="s">
-        <v>338</v>
+        <v>152</v>
       </c>
       <c r="Y4" s="26" t="s">
-        <v>339</v>
+        <v>153</v>
       </c>
       <c r="Z4" s="36" t="s">
-        <v>340</v>
+        <v>154</v>
       </c>
       <c r="AA4" s="36" t="s">
-        <v>341</v>
+        <v>155</v>
       </c>
       <c r="AB4" s="26" t="s">
-        <v>342</v>
+        <v>156</v>
       </c>
       <c r="AC4" s="26" t="s">
-        <v>343</v>
+        <v>157</v>
       </c>
       <c r="AD4" s="26" t="s">
-        <v>344</v>
+        <v>158</v>
       </c>
       <c r="AE4" s="26" t="s">
-        <v>345</v>
+        <v>159</v>
       </c>
       <c r="AF4" s="26" t="s">
-        <v>346</v>
+        <v>160</v>
       </c>
       <c r="AG4" s="37" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="34.5" r="5" s="156" spans="1:34" thickBot="1" thickTop="1">
+        <v>147</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="34.5" r="5" s="158" spans="1:34" thickBot="1" thickTop="1">
       <c r="B5" s="49" t="s">
-        <v>347</v>
+        <v>161</v>
       </c>
       <c r="C5" s="64" t="n">
         <v>3170</v>
@@ -10934,12 +9349,12 @@
         <v/>
       </c>
       <c r="Q5" s="52" t="s">
-        <v>347</v>
+        <v>161</v>
       </c>
       <c r="R5" s="42" t="n"/>
       <c r="S5" s="30" t="n"/>
       <c r="T5" s="49" t="s">
-        <v>347</v>
+        <v>161</v>
       </c>
       <c r="U5" s="64" t="n">
         <v>9499.16</v>
@@ -10974,9 +9389,9 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="34.5" r="6" s="156" spans="1:34" thickTop="1">
+    <row customHeight="1" ht="34.5" r="6" s="158" spans="1:34" thickTop="1">
       <c r="B6" s="49" t="s">
-        <v>348</v>
+        <v>162</v>
       </c>
       <c r="C6" s="82" t="n">
         <v>3200</v>
@@ -11019,13 +9434,13 @@
         <v/>
       </c>
       <c r="Q6" s="53" t="s">
-        <v>349</v>
+        <v>163</v>
       </c>
       <c r="R6" s="130" t="n">
         <v>115500</v>
       </c>
       <c r="T6" s="49" t="s">
-        <v>348</v>
+        <v>162</v>
       </c>
       <c r="U6" s="82" t="n">
         <v>9625</v>
@@ -11068,9 +9483,9 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="34.5" r="7" s="156" spans="1:34" thickBot="1">
+    <row customHeight="1" ht="34.5" r="7" s="158" spans="1:34" thickBot="1">
       <c r="B7" s="49" t="s">
-        <v>350</v>
+        <v>164</v>
       </c>
       <c r="C7" s="86">
         <f>IF(C5 =FALSE, " - ", IFERROR((C6-C5)/C6," - "))</f>
@@ -11122,13 +9537,13 @@
       </c>
       <c r="O7" s="61" t="n"/>
       <c r="Q7" s="53" t="s">
-        <v>351</v>
+        <v>165</v>
       </c>
       <c r="R7" s="131" t="s">
-        <v>352</v>
+        <v>166</v>
       </c>
       <c r="T7" s="49" t="s">
-        <v>350</v>
+        <v>164</v>
       </c>
       <c r="U7" s="89">
         <f>IF(U5 =0, " - ", IFERROR((U6-U5)/U6," - "))</f>
@@ -11181,9 +9596,9 @@
       <c r="AG7" s="61" t="n"/>
       <c r="AH7" s="17" t="n"/>
     </row>
-    <row customHeight="1" ht="34.5" r="8" s="156" spans="1:34" thickTop="1">
+    <row customHeight="1" ht="34.5" r="8" s="158" spans="1:34" thickTop="1">
       <c r="B8" s="62" t="s">
-        <v>353</v>
+        <v>167</v>
       </c>
       <c r="C8" s="78" t="n">
         <v>0</v>
@@ -11222,14 +9637,14 @@
         <v/>
       </c>
       <c r="Q8" s="127" t="s">
-        <v>354</v>
+        <v>168</v>
       </c>
       <c r="R8" s="128" t="n">
         <v>43282</v>
       </c>
       <c r="S8" s="30" t="n"/>
       <c r="T8" s="62" t="s">
-        <v>353</v>
+        <v>167</v>
       </c>
       <c r="U8" s="78" t="n">
         <v>4122.22</v>
@@ -11262,9 +9677,9 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="34.5" r="9" s="156" spans="1:34">
+    <row customHeight="1" ht="34.5" r="9" s="158" spans="1:34">
       <c r="B9" s="76" t="s">
-        <v>348</v>
+        <v>162</v>
       </c>
       <c r="C9" s="60" t="n"/>
       <c r="D9" s="74" t="n"/>
@@ -11284,14 +9699,14 @@
       </c>
       <c r="P9" s="17" t="n"/>
       <c r="Q9" s="53" t="s">
-        <v>355</v>
+        <v>169</v>
       </c>
       <c r="R9" s="132">
         <f>TODAY()</f>
         <v/>
       </c>
       <c r="T9" s="76" t="s">
-        <v>348</v>
+        <v>162</v>
       </c>
       <c r="U9" s="87" t="n">
         <v>3000</v>
@@ -11335,9 +9750,9 @@
       </c>
       <c r="AH9" s="17" t="n"/>
     </row>
-    <row customHeight="1" ht="34.5" r="10" s="156" spans="1:34" thickBot="1">
+    <row customHeight="1" ht="34.5" r="10" s="158" spans="1:34" thickBot="1">
       <c r="B10" s="16" t="s">
-        <v>350</v>
+        <v>164</v>
       </c>
       <c r="C10" s="86">
         <f>IF(C8 =FALSE, " - ", IFERROR((C9-C8)/C9," - "))</f>
@@ -11390,14 +9805,14 @@
       <c r="O10" s="47" t="n"/>
       <c r="P10" s="17" t="n"/>
       <c r="Q10" s="53" t="s">
-        <v>356</v>
+        <v>170</v>
       </c>
       <c r="R10" s="132" t="n">
         <v>43646</v>
       </c>
       <c r="S10" s="30" t="n"/>
       <c r="T10" s="16" t="s">
-        <v>350</v>
+        <v>164</v>
       </c>
       <c r="U10" s="88">
         <f>IF(U8 =0, " - ", IFERROR((U9-U8)/U9," - "))</f>
@@ -11450,7 +9865,7 @@
       <c r="AG10" s="47" t="n"/>
       <c r="AH10" s="17" t="n"/>
     </row>
-    <row customHeight="1" ht="21" r="11" s="156" spans="1:34" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="21" r="11" s="158" spans="1:34" thickBot="1" thickTop="1">
       <c r="C11" s="18" t="n"/>
       <c r="D11" s="18" t="n"/>
       <c r="E11" s="18" t="n"/>
@@ -11461,52 +9876,52 @@
       <c r="M11" s="18" t="n"/>
       <c r="N11" s="18" t="n"/>
       <c r="Q11" s="35" t="s">
-        <v>353</v>
+        <v>167</v>
       </c>
       <c r="R11" s="39" t="n"/>
       <c r="S11" s="17" t="n"/>
     </row>
-    <row customHeight="1" ht="21" r="12" s="156" spans="1:34" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="21" r="12" s="158" spans="1:34" thickBot="1" thickTop="1">
       <c r="Q12" s="53" t="s">
-        <v>349</v>
+        <v>163</v>
       </c>
       <c r="R12" s="2" t="n">
         <v>36000</v>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="13" s="156" spans="1:34" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="24" r="13" s="158" spans="1:34" thickBot="1" thickTop="1">
       <c r="N13" s="51" t="s">
-        <v>347</v>
+        <v>161</v>
       </c>
       <c r="O13" s="23" t="s">
-        <v>353</v>
+        <v>167</v>
       </c>
       <c r="Q13" s="53" t="s">
-        <v>351</v>
+        <v>165</v>
       </c>
       <c r="R13" s="29" t="s">
-        <v>357</v>
+        <v>171</v>
       </c>
       <c r="T13" s="27" t="s">
         <v>3</v>
       </c>
       <c r="U13" s="26" t="s">
-        <v>335</v>
+        <v>149</v>
       </c>
       <c r="V13" s="36" t="s">
-        <v>336</v>
+        <v>150</v>
       </c>
       <c r="W13" s="36" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="24" r="14" s="156" spans="1:34" thickBot="1" thickTop="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="24" r="14" s="158" spans="1:34" thickBot="1" thickTop="1">
       <c r="B14" s="3" t="n"/>
-      <c r="C14" s="155" t="s">
-        <v>358</v>
+      <c r="C14" s="157" t="s">
+        <v>172</v>
       </c>
       <c r="M14" s="33" t="s">
-        <v>359</v>
+        <v>173</v>
       </c>
       <c r="N14" s="65">
         <f>R6</f>
@@ -11517,13 +9932,13 @@
         <v/>
       </c>
       <c r="Q14" s="54" t="s">
-        <v>356</v>
+        <v>170</v>
       </c>
       <c r="R14" s="56" t="n">
         <v>43646</v>
       </c>
       <c r="T14" s="49" t="s">
-        <v>347</v>
+        <v>161</v>
       </c>
       <c r="U14" s="122">
         <f>SUM(C5:F5)</f>
@@ -11538,18 +9953,18 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="15" s="156" spans="1:34" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="24" r="15" s="158" spans="1:34" thickBot="1" thickTop="1">
       <c r="B15" s="4" t="n"/>
       <c r="C15" s="5" t="s">
-        <v>360</v>
+        <v>174</v>
       </c>
       <c r="D15" s="6" t="n"/>
       <c r="E15" s="7" t="s">
-        <v>361</v>
+        <v>175</v>
       </c>
       <c r="F15" s="8" t="n"/>
       <c r="G15" s="73" t="s">
-        <v>362</v>
+        <v>176</v>
       </c>
       <c r="H15" s="9" t="n"/>
       <c r="M15" s="33" t="s">
@@ -11564,14 +9979,14 @@
         <v/>
       </c>
       <c r="Q15" s="55" t="s">
-        <v>363</v>
+        <v>177</v>
       </c>
       <c r="R15" s="129">
         <f>R14-TODAY()</f>
         <v/>
       </c>
       <c r="T15" s="49" t="s">
-        <v>348</v>
+        <v>162</v>
       </c>
       <c r="U15" s="82">
         <f>SUM(C6:F6)</f>
@@ -11586,9 +10001,9 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="16" s="156" spans="1:34" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="24" r="16" s="158" spans="1:34" thickBot="1" thickTop="1">
       <c r="B16" s="50" t="s">
-        <v>347</v>
+        <v>161</v>
       </c>
       <c r="C16" s="10" t="n">
         <v>30</v>
@@ -11605,7 +10020,7 @@
       </c>
       <c r="H16" s="14" t="n"/>
       <c r="M16" s="33" t="s">
-        <v>364</v>
+        <v>178</v>
       </c>
       <c r="N16" s="69">
         <f>N14-N15</f>
@@ -11616,7 +10031,7 @@
         <v/>
       </c>
       <c r="T16" s="49" t="s">
-        <v>350</v>
+        <v>164</v>
       </c>
       <c r="U16" s="123">
         <f>IF(U14 =0, " - ", IFERROR((U15-U14)/U15," - "))</f>
@@ -11631,9 +10046,9 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="21.75" r="17" s="156" spans="1:34" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="21.75" r="17" s="158" spans="1:34" thickBot="1" thickTop="1">
       <c r="B17" s="16" t="s">
-        <v>365</v>
+        <v>179</v>
       </c>
       <c r="C17" s="17" t="n"/>
       <c r="D17" s="11" t="n"/>
@@ -11647,7 +10062,7 @@
       <c r="N17" s="18" t="n"/>
       <c r="O17" s="18" t="n"/>
       <c r="T17" s="62" t="s">
-        <v>353</v>
+        <v>167</v>
       </c>
       <c r="U17" s="78">
         <f>SUM(C8:F8)</f>
@@ -11663,13 +10078,13 @@
       </c>
       <c r="X17" s="17" t="n"/>
     </row>
-    <row customHeight="1" ht="21.75" r="18" s="156" spans="1:34" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="21.75" r="18" s="158" spans="1:34" thickBot="1" thickTop="1">
       <c r="B18" s="3" t="n"/>
-      <c r="C18" s="155" t="s">
-        <v>366</v>
+      <c r="C18" s="157" t="s">
+        <v>180</v>
       </c>
       <c r="T18" s="76" t="s">
-        <v>348</v>
+        <v>162</v>
       </c>
       <c r="U18" s="87">
         <f>SUM(C9:F9)</f>
@@ -11685,28 +10100,28 @@
       </c>
       <c r="X18" s="17" t="n"/>
     </row>
-    <row customHeight="1" ht="21.75" r="19" s="156" spans="1:34" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="21.75" r="19" s="158" spans="1:34" thickBot="1" thickTop="1">
       <c r="B19" s="4" t="n"/>
       <c r="C19" s="5" t="s">
-        <v>360</v>
+        <v>174</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>367</v>
+        <v>181</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>361</v>
+        <v>175</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>367</v>
+        <v>181</v>
       </c>
       <c r="G19" s="73" t="s">
-        <v>362</v>
+        <v>176</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>367</v>
+        <v>181</v>
       </c>
       <c r="T19" s="16" t="s">
-        <v>350</v>
+        <v>164</v>
       </c>
       <c r="U19" s="88">
         <f>IF(U17 =0, " - ", IFERROR((U18-U17)/U18," - "))</f>
@@ -11722,9 +10137,9 @@
       </c>
       <c r="X19" s="17" t="n"/>
     </row>
-    <row customHeight="1" ht="21.75" r="20" s="156" spans="1:34" thickTop="1">
+    <row customHeight="1" ht="21.75" r="20" s="158" spans="1:34" thickTop="1">
       <c r="B20" s="50" t="s">
-        <v>347</v>
+        <v>161</v>
       </c>
       <c r="C20" s="10" t="n">
         <v>13</v>
@@ -11750,9 +10165,9 @@
       </c>
       <c r="I20" s="17" t="n"/>
     </row>
-    <row customHeight="1" ht="21.75" r="21" s="156" spans="1:34" thickBot="1">
+    <row customHeight="1" ht="21.75" r="21" s="158" spans="1:34" thickBot="1">
       <c r="B21" s="16" t="s">
-        <v>365</v>
+        <v>179</v>
       </c>
       <c r="C21" s="17" t="n"/>
       <c r="D21" s="77">
@@ -11774,46 +10189,46 @@
       </c>
       <c r="I21" s="17" t="n"/>
     </row>
-    <row customHeight="1" ht="21.75" r="22" s="156" spans="1:34" thickTop="1">
+    <row customHeight="1" ht="21.75" r="22" s="158" spans="1:34" thickTop="1">
       <c r="C22" s="18" t="n"/>
       <c r="D22" s="18" t="n"/>
       <c r="F22" s="18" t="n"/>
       <c r="H22" s="18" t="n"/>
     </row>
-    <row customHeight="1" ht="21" r="23" s="156" spans="1:34" thickBot="1"/>
-    <row customHeight="1" ht="16.5" r="24" s="156" spans="1:34" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="21" r="23" s="158" spans="1:34" thickBot="1"/>
+    <row customHeight="1" ht="16.5" r="24" s="158" spans="1:34" thickBot="1" thickTop="1">
       <c r="B24" s="15" t="s">
-        <v>368</v>
+        <v>182</v>
       </c>
       <c r="C24" s="24">
         <f>#REF!/100</f>
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="25" s="156" spans="1:34" thickTop="1"/>
-    <row customHeight="1" ht="15.75" r="26" s="156" spans="1:34" thickBot="1"/>
-    <row customHeight="1" ht="15.75" r="27" s="156" spans="1:34" thickBot="1">
-      <c r="C27" s="157" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.75" r="28" s="156" spans="1:34" thickBot="1">
+    <row customHeight="1" ht="15.75" r="25" s="158" spans="1:34" thickTop="1"/>
+    <row customHeight="1" ht="15.75" r="26" s="158" spans="1:34" thickBot="1"/>
+    <row customHeight="1" ht="15.75" r="27" s="158" spans="1:34" thickBot="1">
+      <c r="C27" s="159" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="28" s="158" spans="1:34" thickBot="1">
       <c r="B28" s="114" t="n"/>
       <c r="C28" s="111" t="s">
         <v>2</v>
       </c>
       <c r="D28" s="112" t="n"/>
       <c r="E28" s="113" t="s">
-        <v>361</v>
+        <v>175</v>
       </c>
       <c r="F28" s="113" t="s">
-        <v>370</v>
+        <v>184</v>
       </c>
       <c r="G28" s="32" t="n"/>
     </row>
-    <row customHeight="1" ht="15.75" r="29" s="156" spans="1:34" thickBot="1">
+    <row customHeight="1" ht="15.75" r="29" s="158" spans="1:34" thickBot="1">
       <c r="B29" s="116" t="s">
-        <v>371</v>
+        <v>185</v>
       </c>
       <c r="C29" s="115" t="n">
         <v>14500</v>
@@ -11826,27 +10241,27 @@
         <v>15</v>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="30" s="156" spans="1:34" thickBot="1">
-      <c r="C30" s="157" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.75" r="31" s="156" spans="1:34" thickBot="1">
+    <row customHeight="1" ht="15.75" r="30" s="158" spans="1:34" thickBot="1">
+      <c r="C30" s="159" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="31" s="158" spans="1:34" thickBot="1">
       <c r="B31" s="114" t="n"/>
       <c r="C31" s="111" t="s">
         <v>2</v>
       </c>
       <c r="D31" s="112" t="n"/>
       <c r="E31" s="113" t="s">
-        <v>361</v>
+        <v>175</v>
       </c>
       <c r="F31" s="118" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.75" r="32" s="156" spans="1:34" thickBot="1">
+        <v>184</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="32" s="158" spans="1:34" thickBot="1">
       <c r="B32" s="116" t="s">
-        <v>371</v>
+        <v>185</v>
       </c>
       <c r="C32" s="115" t="n">
         <v>14500</v>
@@ -11859,42 +10274,42 @@
         <v>15</v>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="33" s="156" spans="1:34" thickBot="1"/>
-    <row customHeight="1" ht="22.5" r="34" s="156" spans="1:34" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="15.75" r="33" s="158" spans="1:34" thickBot="1"/>
+    <row customHeight="1" ht="22.5" r="34" s="158" spans="1:34" thickBot="1" thickTop="1">
       <c r="B34" s="26" t="s">
-        <v>372</v>
+        <v>186</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>284</v>
+        <v>4</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>373</v>
+        <v>187</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>374</v>
+        <v>188</v>
       </c>
       <c r="F34" s="141" t="s">
-        <v>375</v>
+        <v>189</v>
       </c>
       <c r="G34" s="141" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25.5" r="35" s="156" spans="1:34" thickBot="1" thickTop="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="35" s="158" spans="1:34" thickBot="1" thickTop="1">
       <c r="B35" s="142" t="s">
-        <v>377</v>
+        <v>191</v>
       </c>
       <c r="C35" s="91" t="n">
         <v>43613</v>
       </c>
       <c r="D35" s="34" t="s">
-        <v>353</v>
+        <v>167</v>
       </c>
       <c r="E35" s="93" t="n">
         <v>3000</v>
       </c>
       <c r="F35" s="150" t="s">
-        <v>357</v>
+        <v>171</v>
       </c>
       <c r="G35" s="149">
         <f>E35*100/R6/100</f>
@@ -11902,108 +10317,108 @@
       </c>
       <c r="H35" s="17" t="n"/>
     </row>
-    <row customHeight="1" ht="25.5" r="36" s="156" spans="1:34" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="25.5" r="36" s="158" spans="1:34" thickBot="1" thickTop="1">
       <c r="A36" s="144" t="n"/>
       <c r="B36" s="143" t="s">
-        <v>378</v>
+        <v>192</v>
       </c>
       <c r="C36" s="91" t="n">
         <v>43591</v>
       </c>
       <c r="D36" s="34" t="s">
-        <v>347</v>
+        <v>161</v>
       </c>
       <c r="E36" s="93" t="n">
         <v>23000</v>
       </c>
       <c r="F36" s="131" t="s">
-        <v>352</v>
+        <v>166</v>
       </c>
       <c r="G36" s="149">
         <f>E36*100/R6/100</f>
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="25.5" r="37" s="156" spans="1:34" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="25.5" r="37" s="158" spans="1:34" thickBot="1" thickTop="1">
       <c r="A37" s="144" t="n"/>
       <c r="B37" s="143" t="s">
-        <v>378</v>
+        <v>192</v>
       </c>
       <c r="C37" s="145" t="n">
         <v>43591</v>
       </c>
       <c r="D37" s="146" t="s">
-        <v>353</v>
+        <v>167</v>
       </c>
       <c r="E37" s="147" t="n">
         <v>15700</v>
       </c>
       <c r="F37" s="150" t="s">
-        <v>357</v>
+        <v>171</v>
       </c>
       <c r="G37" s="148" t="n"/>
       <c r="H37" s="17" t="n"/>
     </row>
-    <row customHeight="1" ht="75.75" r="38" s="156" spans="1:34" thickTop="1">
+    <row customHeight="1" ht="75.75" r="38" s="158" spans="1:34" thickTop="1">
       <c r="E38" s="18" t="n"/>
       <c r="F38" s="18" t="n"/>
       <c r="G38" s="18" t="n"/>
     </row>
-    <row customHeight="1" ht="46.5" r="39" s="156" spans="1:34">
-      <c r="B39" s="161" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="24" r="40" s="156" spans="1:34" thickBot="1">
+    <row customHeight="1" ht="46.5" r="39" s="158" spans="1:34">
+      <c r="B39" s="163" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="24" r="40" s="158" spans="1:34" thickBot="1">
       <c r="H40" s="25" t="n"/>
       <c r="I40" s="25" t="n"/>
       <c r="L40" s="25" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="41" s="156" spans="1:34" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="24" r="41" s="158" spans="1:34" thickBot="1" thickTop="1">
       <c r="B41" s="27" t="s">
         <v>3</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>321</v>
+        <v>135</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>322</v>
+        <v>136</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>323</v>
+        <v>137</v>
       </c>
       <c r="F41" s="36" t="s">
-        <v>324</v>
+        <v>138</v>
       </c>
       <c r="G41" s="26" t="s">
-        <v>325</v>
+        <v>139</v>
       </c>
       <c r="H41" s="26" t="s">
-        <v>326</v>
+        <v>140</v>
       </c>
       <c r="I41" s="26" t="s">
-        <v>327</v>
+        <v>141</v>
       </c>
       <c r="J41" s="26" t="s">
-        <v>328</v>
+        <v>142</v>
       </c>
       <c r="K41" s="26" t="s">
-        <v>329</v>
+        <v>143</v>
       </c>
       <c r="L41" s="26" t="s">
-        <v>330</v>
+        <v>144</v>
       </c>
       <c r="M41" s="26" t="s">
-        <v>331</v>
+        <v>145</v>
       </c>
       <c r="N41" s="26" t="s">
-        <v>332</v>
+        <v>146</v>
       </c>
       <c r="O41" s="37" t="s">
-        <v>333</v>
+        <v>147</v>
       </c>
       <c r="Q41" s="38" t="s">
-        <v>334</v>
+        <v>148</v>
       </c>
       <c r="R41" s="28" t="n"/>
       <c r="S41" s="30" t="n"/>
@@ -12011,18 +10426,18 @@
         <v>3</v>
       </c>
       <c r="U41" s="26" t="s">
-        <v>335</v>
+        <v>149</v>
       </c>
       <c r="V41" s="36" t="s">
-        <v>336</v>
+        <v>150</v>
       </c>
       <c r="W41" s="36" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="24" r="42" s="156" spans="1:34" thickBot="1" thickTop="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="24" r="42" s="158" spans="1:34" thickBot="1" thickTop="1">
       <c r="B42" s="49" t="s">
-        <v>347</v>
+        <v>161</v>
       </c>
       <c r="C42" s="64" t="n">
         <v>3770</v>
@@ -12061,11 +10476,11 @@
         <v/>
       </c>
       <c r="Q42" s="52" t="s">
-        <v>347</v>
+        <v>161</v>
       </c>
       <c r="R42" s="39" t="n"/>
       <c r="T42" s="49" t="s">
-        <v>347</v>
+        <v>161</v>
       </c>
       <c r="U42" s="64">
         <f>SUM(C42:F42)</f>
@@ -12081,9 +10496,9 @@
       </c>
       <c r="X42" s="17" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="43" s="156" spans="1:34" thickTop="1">
+    <row customHeight="1" ht="24" r="43" s="158" spans="1:34" thickTop="1">
       <c r="B43" s="49" t="s">
-        <v>348</v>
+        <v>162</v>
       </c>
       <c r="C43" s="82" t="n">
         <v>3458</v>
@@ -12126,13 +10541,13 @@
         <v/>
       </c>
       <c r="Q43" s="53" t="s">
-        <v>349</v>
+        <v>163</v>
       </c>
       <c r="R43" s="130" t="n">
         <v>41500</v>
       </c>
       <c r="T43" s="49" t="s">
-        <v>348</v>
+        <v>162</v>
       </c>
       <c r="U43" s="67">
         <f>SUM(C43:F43)</f>
@@ -12147,9 +10562,9 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="44" s="156" spans="1:34" thickBot="1">
+    <row customHeight="1" ht="24" r="44" s="158" spans="1:34" thickBot="1">
       <c r="B44" s="49" t="s">
-        <v>350</v>
+        <v>164</v>
       </c>
       <c r="C44" s="86">
         <f>IF(C42 =FALSE, " - ", IFERROR((C43-C42)/C43," - "))</f>
@@ -12201,13 +10616,13 @@
       </c>
       <c r="O44" s="61" t="n"/>
       <c r="Q44" s="53" t="s">
-        <v>351</v>
+        <v>165</v>
       </c>
       <c r="R44" s="131" t="s">
-        <v>380</v>
+        <v>194</v>
       </c>
       <c r="T44" s="49" t="s">
-        <v>350</v>
+        <v>164</v>
       </c>
       <c r="U44" s="123">
         <f>IF(U42 =0, " - ", IFERROR((U43-U42)/U43," - "))</f>
@@ -12222,9 +10637,9 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="45" s="156" spans="1:34" thickTop="1">
+    <row customHeight="1" ht="24" r="45" s="158" spans="1:34" thickTop="1">
       <c r="B45" s="62" t="s">
-        <v>353</v>
+        <v>167</v>
       </c>
       <c r="C45" s="78" t="n">
         <v>506</v>
@@ -12261,14 +10676,14 @@
         <v/>
       </c>
       <c r="Q45" s="127" t="s">
-        <v>354</v>
+        <v>168</v>
       </c>
       <c r="R45" s="133" t="n">
         <v>43466</v>
       </c>
       <c r="S45" s="30" t="n"/>
       <c r="T45" s="62" t="s">
-        <v>353</v>
+        <v>167</v>
       </c>
       <c r="U45" s="78">
         <f>SUM(C45:F45)</f>
@@ -12284,9 +10699,9 @@
       </c>
       <c r="X45" s="17" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="46" s="156" spans="1:34">
+    <row customHeight="1" ht="24" r="46" s="158" spans="1:34">
       <c r="B46" s="76" t="s">
-        <v>348</v>
+        <v>162</v>
       </c>
       <c r="C46" s="87" t="n">
         <v>875</v>
@@ -12330,14 +10745,14 @@
       </c>
       <c r="P46" s="17" t="n"/>
       <c r="Q46" s="53" t="s">
-        <v>355</v>
+        <v>169</v>
       </c>
       <c r="R46" s="132">
         <f>TODAY()</f>
         <v/>
       </c>
       <c r="T46" s="76" t="s">
-        <v>348</v>
+        <v>162</v>
       </c>
       <c r="U46" s="78">
         <f>SUM(C46:F46)</f>
@@ -12353,9 +10768,9 @@
       </c>
       <c r="X46" s="17" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="47" s="156" spans="1:34" thickBot="1">
+    <row customHeight="1" ht="24" r="47" s="158" spans="1:34" thickBot="1">
       <c r="B47" s="16" t="s">
-        <v>350</v>
+        <v>164</v>
       </c>
       <c r="C47" s="86">
         <f>IF(C45 =FALSE, " - ", IFERROR((C46-C45)/C46," - "))</f>
@@ -12408,13 +10823,13 @@
       <c r="O47" s="47" t="n"/>
       <c r="P47" s="17" t="n"/>
       <c r="Q47" s="53" t="s">
-        <v>356</v>
+        <v>170</v>
       </c>
       <c r="R47" s="132" t="n">
         <v>43555</v>
       </c>
       <c r="T47" s="16" t="s">
-        <v>350</v>
+        <v>164</v>
       </c>
       <c r="U47" s="88">
         <f>IF(U45 =0, " - ", IFERROR((U46-U45)/U46," - "))</f>
@@ -12429,7 +10844,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="48" s="156" spans="1:34" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="24" r="48" s="158" spans="1:34" thickBot="1" thickTop="1">
       <c r="C48" s="18" t="n"/>
       <c r="D48" s="18" t="n"/>
       <c r="E48" s="18" t="n"/>
@@ -12440,42 +10855,42 @@
       <c r="M48" s="18" t="n"/>
       <c r="N48" s="18" t="n"/>
       <c r="Q48" s="35" t="s">
-        <v>353</v>
+        <v>167</v>
       </c>
       <c r="R48" s="39" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="49" s="156" spans="1:34" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="24" r="49" s="158" spans="1:34" thickBot="1" thickTop="1">
       <c r="Q49" s="53" t="s">
-        <v>349</v>
+        <v>163</v>
       </c>
       <c r="R49" s="130" t="n">
         <v>10500</v>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="50" s="156" spans="1:34" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="24" r="50" s="158" spans="1:34" thickBot="1" thickTop="1">
       <c r="N50" s="51" t="s">
-        <v>347</v>
+        <v>161</v>
       </c>
       <c r="O50" s="23" t="s">
-        <v>353</v>
+        <v>167</v>
       </c>
       <c r="Q50" s="53" t="s">
-        <v>351</v>
+        <v>165</v>
       </c>
       <c r="R50" s="131" t="s">
-        <v>381</v>
+        <v>195</v>
       </c>
       <c r="S50" s="17" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="24" r="51" s="156" spans="1:34" thickBot="1" thickTop="1">
+        <v>196</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="24" r="51" s="158" spans="1:34" thickBot="1" thickTop="1">
       <c r="B51" s="3" t="n"/>
-      <c r="C51" s="155" t="s">
-        <v>358</v>
+      <c r="C51" s="157" t="s">
+        <v>172</v>
       </c>
       <c r="M51" s="33" t="s">
-        <v>359</v>
+        <v>173</v>
       </c>
       <c r="N51" s="65">
         <f>R43</f>
@@ -12486,24 +10901,24 @@
         <v/>
       </c>
       <c r="Q51" s="54" t="s">
-        <v>356</v>
+        <v>170</v>
       </c>
       <c r="R51" s="132" t="n">
         <v>43555</v>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="52" s="156" spans="1:34" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="24" r="52" s="158" spans="1:34" thickBot="1" thickTop="1">
       <c r="B52" s="4" t="n"/>
       <c r="C52" s="5" t="s">
-        <v>360</v>
+        <v>174</v>
       </c>
       <c r="D52" s="6" t="n"/>
       <c r="E52" s="7" t="s">
-        <v>361</v>
+        <v>175</v>
       </c>
       <c r="F52" s="8" t="n"/>
       <c r="G52" s="73" t="s">
-        <v>362</v>
+        <v>176</v>
       </c>
       <c r="H52" s="9" t="n"/>
       <c r="M52" s="33" t="s">
@@ -12518,7 +10933,7 @@
         <v/>
       </c>
       <c r="Q52" s="55" t="s">
-        <v>363</v>
+        <v>177</v>
       </c>
       <c r="R52" s="90">
         <f>R51-TODAY()</f>
@@ -12526,9 +10941,9 @@
       </c>
       <c r="S52" s="17" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="53" s="156" spans="1:34" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="24" r="53" s="158" spans="1:34" thickBot="1" thickTop="1">
       <c r="B53" s="50" t="s">
-        <v>347</v>
+        <v>161</v>
       </c>
       <c r="C53" s="10" t="n">
         <v>127</v>
@@ -12545,7 +10960,7 @@
       </c>
       <c r="H53" s="14" t="n"/>
       <c r="M53" s="33" t="s">
-        <v>364</v>
+        <v>178</v>
       </c>
       <c r="N53" s="69">
         <f>N51-N52</f>
@@ -12556,9 +10971,9 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="54" s="156" spans="1:34" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="24" r="54" s="158" spans="1:34" thickBot="1" thickTop="1">
       <c r="B54" s="16" t="s">
-        <v>365</v>
+        <v>179</v>
       </c>
       <c r="C54" s="110" t="n">
         <v>4</v>
@@ -12574,36 +10989,36 @@
       <c r="N54" s="18" t="n"/>
       <c r="O54" s="18" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="55" s="156" spans="1:34" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="24" r="55" s="158" spans="1:34" thickBot="1" thickTop="1">
       <c r="B55" s="3" t="n"/>
-      <c r="C55" s="155" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="24" r="56" s="156" spans="1:34" thickBot="1" thickTop="1">
+      <c r="C55" s="157" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="24" r="56" s="158" spans="1:34" thickBot="1" thickTop="1">
       <c r="B56" s="4" t="n"/>
       <c r="C56" s="5" t="s">
-        <v>360</v>
+        <v>174</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>367</v>
+        <v>181</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>361</v>
+        <v>175</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>367</v>
+        <v>181</v>
       </c>
       <c r="G56" s="73" t="s">
-        <v>362</v>
+        <v>176</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="24" r="57" s="156" spans="1:34" thickTop="1">
+        <v>181</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="24" r="57" s="158" spans="1:34" thickTop="1">
       <c r="B57" s="50" t="s">
-        <v>347</v>
+        <v>161</v>
       </c>
       <c r="C57" s="10" t="n">
         <v>154</v>
@@ -12629,9 +11044,9 @@
       </c>
       <c r="I57" s="17" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="58" s="156" spans="1:34" thickBot="1">
+    <row customHeight="1" ht="24" r="58" s="158" spans="1:34" thickBot="1">
       <c r="B58" s="16" t="s">
-        <v>365</v>
+        <v>179</v>
       </c>
       <c r="C58" s="110" t="n">
         <v>14</v>
@@ -12655,45 +11070,45 @@
       </c>
       <c r="I58" s="17" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="59" s="156" spans="1:34" thickTop="1">
+    <row customHeight="1" ht="24" r="59" s="158" spans="1:34" thickTop="1">
       <c r="C59" s="18" t="n"/>
       <c r="D59" s="18" t="n"/>
       <c r="F59" s="18" t="n"/>
       <c r="H59" s="18" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="60" s="156" spans="1:34" thickBot="1"/>
-    <row customHeight="1" ht="24" r="61" s="156" spans="1:34" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="24" r="60" s="158" spans="1:34" thickBot="1"/>
+    <row customHeight="1" ht="24" r="61" s="158" spans="1:34" thickBot="1" thickTop="1">
       <c r="B61" s="15" t="s">
-        <v>368</v>
+        <v>182</v>
       </c>
       <c r="C61" s="24">
         <f>#REF!/100</f>
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="62" s="156" spans="1:34" thickTop="1"/>
-    <row customHeight="1" ht="24" r="63" s="156" spans="1:34" thickBot="1"/>
-    <row customHeight="1" ht="24" r="64" s="156" spans="1:34" thickBot="1">
-      <c r="C64" s="157" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="24" r="65" s="156" spans="1:34" thickBot="1">
+    <row customHeight="1" ht="24" r="62" s="158" spans="1:34" thickTop="1"/>
+    <row customHeight="1" ht="24" r="63" s="158" spans="1:34" thickBot="1"/>
+    <row customHeight="1" ht="24" r="64" s="158" spans="1:34" thickBot="1">
+      <c r="C64" s="159" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="24" r="65" s="158" spans="1:34" thickBot="1">
       <c r="B65" s="114" t="n"/>
       <c r="C65" s="111" t="s">
         <v>2</v>
       </c>
       <c r="D65" s="112" t="n"/>
       <c r="E65" s="113" t="s">
-        <v>361</v>
+        <v>175</v>
       </c>
       <c r="F65" s="118" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="24" r="66" s="156" spans="1:34" thickBot="1">
+        <v>184</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="24" r="66" s="158" spans="1:34" thickBot="1">
       <c r="B66" s="116" t="s">
-        <v>371</v>
+        <v>185</v>
       </c>
       <c r="C66" s="115" t="n">
         <v>14500</v>
@@ -12706,28 +11121,28 @@
         <v>15</v>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="67" s="156" spans="1:34" thickBot="1">
-      <c r="C67" s="157" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="24" r="68" s="156" spans="1:34" thickBot="1">
+    <row customHeight="1" ht="24" r="67" s="158" spans="1:34" thickBot="1">
+      <c r="C67" s="159" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="24" r="68" s="158" spans="1:34" thickBot="1">
       <c r="B68" s="114" t="n"/>
       <c r="C68" s="111" t="s">
         <v>2</v>
       </c>
       <c r="D68" s="112" t="n"/>
       <c r="E68" s="113" t="s">
-        <v>361</v>
+        <v>175</v>
       </c>
       <c r="F68" s="113" t="s">
-        <v>370</v>
+        <v>184</v>
       </c>
       <c r="G68" s="32" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="69" s="156" spans="1:34" thickBot="1">
+    <row customHeight="1" ht="24" r="69" s="158" spans="1:34" thickBot="1">
       <c r="B69" s="116" t="s">
-        <v>371</v>
+        <v>185</v>
       </c>
       <c r="C69" s="115" t="n">
         <v>14500</v>
@@ -12740,68 +11155,68 @@
         <v>15</v>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="70" s="156" spans="1:34" thickBot="1"/>
-    <row customHeight="1" ht="24" r="71" s="156" spans="1:34" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="24" r="70" s="158" spans="1:34" thickBot="1"/>
+    <row customHeight="1" ht="24" r="71" s="158" spans="1:34" thickBot="1" thickTop="1">
       <c r="B71" s="26" t="s">
-        <v>372</v>
+        <v>186</v>
       </c>
       <c r="C71" s="26" t="s">
-        <v>284</v>
+        <v>4</v>
       </c>
       <c r="D71" s="26" t="s">
-        <v>373</v>
+        <v>187</v>
       </c>
       <c r="E71" s="26" t="s">
-        <v>374</v>
+        <v>188</v>
       </c>
       <c r="F71" s="26" t="s">
-        <v>375</v>
+        <v>189</v>
       </c>
       <c r="G71" s="141" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="24" r="72" s="156" spans="1:34" thickBot="1" thickTop="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="24" r="72" s="158" spans="1:34" thickBot="1" thickTop="1">
       <c r="B72" s="40" t="s">
-        <v>377</v>
+        <v>191</v>
       </c>
       <c r="C72" s="91" t="n">
         <v>43501</v>
       </c>
       <c r="D72" s="34" t="s">
-        <v>353</v>
+        <v>167</v>
       </c>
       <c r="E72" s="93" t="n">
         <v>2000</v>
       </c>
       <c r="F72" s="95" t="s">
-        <v>357</v>
+        <v>171</v>
       </c>
       <c r="G72" s="149">
         <f>E72*100/R43/100</f>
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="73" s="156" spans="1:34" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="24" r="73" s="158" spans="1:34" thickBot="1" thickTop="1">
       <c r="B73" s="40" t="s">
-        <v>383</v>
+        <v>197</v>
       </c>
       <c r="C73" s="91" t="n"/>
       <c r="D73" s="34" t="s">
-        <v>347</v>
+        <v>161</v>
       </c>
       <c r="E73" s="93" t="n">
         <v>29000</v>
       </c>
       <c r="F73" s="94" t="s">
-        <v>384</v>
+        <v>198</v>
       </c>
       <c r="G73" s="149">
         <f>E73*100/R43/100</f>
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="74" s="156" spans="1:34" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="24" r="74" s="158" spans="1:34" thickBot="1" thickTop="1">
       <c r="B74" s="41" t="n"/>
       <c r="C74" s="92" t="n"/>
       <c r="D74" s="152" t="n"/>
@@ -12815,61 +11230,61 @@
       <c r="D75" s="31" t="n"/>
       <c r="F75" s="31" t="n"/>
     </row>
-    <row customHeight="1" ht="46.5" r="77" s="156" spans="1:34">
-      <c r="B77" s="161" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.75" r="78" s="156" spans="1:34" thickBot="1">
+    <row customHeight="1" ht="46.5" r="77" s="158" spans="1:34">
+      <c r="B77" s="163" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="78" s="158" spans="1:34" thickBot="1">
       <c r="H78" s="25" t="n"/>
       <c r="I78" s="25" t="n"/>
       <c r="L78" s="25" t="n"/>
     </row>
-    <row customHeight="1" ht="28.5" r="79" s="156" spans="1:34" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="28.5" r="79" s="158" spans="1:34" thickBot="1" thickTop="1">
       <c r="B79" s="27" t="s">
         <v>3</v>
       </c>
       <c r="C79" s="26" t="s">
-        <v>321</v>
+        <v>135</v>
       </c>
       <c r="D79" s="26" t="s">
-        <v>322</v>
+        <v>136</v>
       </c>
       <c r="E79" s="26" t="s">
-        <v>323</v>
+        <v>137</v>
       </c>
       <c r="F79" s="36" t="s">
-        <v>324</v>
+        <v>138</v>
       </c>
       <c r="G79" s="26" t="s">
-        <v>325</v>
+        <v>139</v>
       </c>
       <c r="H79" s="26" t="s">
-        <v>326</v>
+        <v>140</v>
       </c>
       <c r="I79" s="26" t="s">
-        <v>327</v>
+        <v>141</v>
       </c>
       <c r="J79" s="26" t="s">
-        <v>328</v>
+        <v>142</v>
       </c>
       <c r="K79" s="26" t="s">
-        <v>329</v>
+        <v>143</v>
       </c>
       <c r="L79" s="26" t="s">
-        <v>330</v>
+        <v>144</v>
       </c>
       <c r="M79" s="26" t="s">
-        <v>331</v>
+        <v>145</v>
       </c>
       <c r="N79" s="26" t="s">
-        <v>332</v>
+        <v>146</v>
       </c>
       <c r="O79" s="37" t="s">
-        <v>333</v>
+        <v>147</v>
       </c>
       <c r="Q79" s="38" t="s">
-        <v>334</v>
+        <v>148</v>
       </c>
       <c r="R79" s="28" t="n"/>
       <c r="S79" s="30" t="n"/>
@@ -12877,18 +11292,18 @@
         <v>3</v>
       </c>
       <c r="U79" s="26" t="s">
-        <v>335</v>
+        <v>149</v>
       </c>
       <c r="V79" s="36" t="s">
-        <v>336</v>
+        <v>150</v>
       </c>
       <c r="W79" s="36" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="28.5" r="80" s="156" spans="1:34" thickBot="1" thickTop="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="28.5" r="80" s="158" spans="1:34" thickBot="1" thickTop="1">
       <c r="B80" s="49" t="s">
-        <v>347</v>
+        <v>161</v>
       </c>
       <c r="C80" s="64" t="n">
         <v>2010</v>
@@ -12927,12 +11342,12 @@
         <v/>
       </c>
       <c r="Q80" s="52" t="s">
-        <v>347</v>
+        <v>161</v>
       </c>
       <c r="R80" s="42" t="n"/>
       <c r="S80" s="30" t="n"/>
       <c r="T80" s="49" t="s">
-        <v>347</v>
+        <v>161</v>
       </c>
       <c r="U80" s="120">
         <f>SUM(C80:F80)</f>
@@ -12948,9 +11363,9 @@
       </c>
       <c r="X80" s="17" t="n"/>
     </row>
-    <row customHeight="1" ht="28.5" r="81" s="156" spans="1:34" thickTop="1">
+    <row customHeight="1" ht="28.5" r="81" s="158" spans="1:34" thickTop="1">
       <c r="B81" s="49" t="s">
-        <v>348</v>
+        <v>162</v>
       </c>
       <c r="C81" s="82" t="n">
         <v>4000</v>
@@ -12993,13 +11408,13 @@
         <v/>
       </c>
       <c r="Q81" s="53" t="s">
-        <v>349</v>
+        <v>163</v>
       </c>
       <c r="R81" s="2" t="n">
         <v>48000</v>
       </c>
       <c r="T81" s="49" t="s">
-        <v>348</v>
+        <v>162</v>
       </c>
       <c r="U81" s="60">
         <f>SUM(C81:F81)</f>
@@ -13015,9 +11430,9 @@
       </c>
       <c r="X81" s="17" t="n"/>
     </row>
-    <row customHeight="1" ht="28.5" r="82" s="156" spans="1:34" thickBot="1">
+    <row customHeight="1" ht="28.5" r="82" s="158" spans="1:34" thickBot="1">
       <c r="B82" s="49" t="s">
-        <v>350</v>
+        <v>164</v>
       </c>
       <c r="C82" s="86">
         <f>IF(C80 =FALSE, " - ", IFERROR((C81-C80)/C81," - "))</f>
@@ -13069,13 +11484,13 @@
       </c>
       <c r="O82" s="61" t="n"/>
       <c r="Q82" s="53" t="s">
-        <v>351</v>
+        <v>165</v>
       </c>
       <c r="R82" s="29" t="s">
-        <v>386</v>
+        <v>200</v>
       </c>
       <c r="T82" s="49" t="s">
-        <v>350</v>
+        <v>164</v>
       </c>
       <c r="U82" s="123">
         <f>IF(U80 =0, " - ", IFERROR((U81-U80)/U81," - "))</f>
@@ -13090,9 +11505,9 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="28.5" r="83" s="156" spans="1:34" thickTop="1">
+    <row customHeight="1" ht="28.5" r="83" s="158" spans="1:34" thickTop="1">
       <c r="B83" s="62" t="s">
-        <v>353</v>
+        <v>167</v>
       </c>
       <c r="C83" s="78" t="n">
         <v>500</v>
@@ -13129,13 +11544,13 @@
         <v/>
       </c>
       <c r="Q83" s="127" t="s">
-        <v>354</v>
+        <v>168</v>
       </c>
       <c r="R83" s="133" t="n">
         <v>43466</v>
       </c>
       <c r="T83" s="62" t="s">
-        <v>353</v>
+        <v>167</v>
       </c>
       <c r="U83" s="78">
         <f>SUM(C83:F83)</f>
@@ -13151,9 +11566,9 @@
       </c>
       <c r="X83" s="17" t="n"/>
     </row>
-    <row customHeight="1" ht="28.5" r="84" s="156" spans="1:34">
+    <row customHeight="1" ht="28.5" r="84" s="158" spans="1:34">
       <c r="B84" s="76" t="s">
-        <v>348</v>
+        <v>162</v>
       </c>
       <c r="C84" s="87" t="n">
         <v>1225</v>
@@ -13197,14 +11612,14 @@
       </c>
       <c r="P84" s="17" t="n"/>
       <c r="Q84" s="53" t="s">
-        <v>355</v>
+        <v>169</v>
       </c>
       <c r="R84" s="132">
         <f>TODAY()</f>
         <v/>
       </c>
       <c r="T84" s="76" t="s">
-        <v>348</v>
+        <v>162</v>
       </c>
       <c r="U84" s="78">
         <f>SUM(C84:F84)</f>
@@ -13219,9 +11634,9 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="28.5" r="85" s="156" spans="1:34" thickBot="1">
+    <row customHeight="1" ht="28.5" r="85" s="158" spans="1:34" thickBot="1">
       <c r="B85" s="16" t="s">
-        <v>350</v>
+        <v>164</v>
       </c>
       <c r="C85" s="86">
         <f>IF(C83 =FALSE, " - ", IFERROR((C84-C83)/C84," - "))</f>
@@ -13274,13 +11689,13 @@
       <c r="O85" s="47" t="n"/>
       <c r="P85" s="17" t="n"/>
       <c r="Q85" s="53" t="s">
-        <v>356</v>
+        <v>170</v>
       </c>
       <c r="R85" s="132" t="n">
         <v>43646</v>
       </c>
       <c r="T85" s="16" t="s">
-        <v>350</v>
+        <v>164</v>
       </c>
       <c r="U85" s="88">
         <f>IF(U83 =0, " - ", IFERROR((U84-U83)/U84," - "))</f>
@@ -13295,7 +11710,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="28.5" r="86" s="156" spans="1:34" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="28.5" r="86" s="158" spans="1:34" thickBot="1" thickTop="1">
       <c r="C86" s="18" t="n"/>
       <c r="D86" s="18" t="n"/>
       <c r="E86" s="18" t="n"/>
@@ -13306,40 +11721,40 @@
       <c r="M86" s="18" t="n"/>
       <c r="N86" s="18" t="n"/>
       <c r="Q86" s="35" t="s">
-        <v>353</v>
+        <v>167</v>
       </c>
       <c r="R86" s="39" t="n"/>
     </row>
-    <row customHeight="1" ht="28.5" r="87" s="156" spans="1:34" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="28.5" r="87" s="158" spans="1:34" thickBot="1" thickTop="1">
       <c r="Q87" s="53" t="s">
-        <v>349</v>
+        <v>163</v>
       </c>
       <c r="R87" s="2" t="n">
         <v>14700</v>
       </c>
     </row>
-    <row customHeight="1" ht="28.5" r="88" s="156" spans="1:34" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="28.5" r="88" s="158" spans="1:34" thickBot="1" thickTop="1">
       <c r="N88" s="51" t="s">
-        <v>347</v>
+        <v>161</v>
       </c>
       <c r="O88" s="23" t="s">
-        <v>353</v>
+        <v>167</v>
       </c>
       <c r="Q88" s="53" t="s">
-        <v>351</v>
+        <v>165</v>
       </c>
       <c r="R88" s="29" t="s">
-        <v>387</v>
+        <v>201</v>
       </c>
       <c r="S88" s="17" t="n"/>
     </row>
-    <row customHeight="1" ht="28.5" r="89" s="156" spans="1:34" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="28.5" r="89" s="158" spans="1:34" thickBot="1" thickTop="1">
       <c r="B89" s="3" t="n"/>
-      <c r="C89" s="155" t="s">
-        <v>358</v>
+      <c r="C89" s="157" t="s">
+        <v>172</v>
       </c>
       <c r="M89" s="33" t="s">
-        <v>359</v>
+        <v>173</v>
       </c>
       <c r="N89" s="65">
         <f>R81</f>
@@ -13350,24 +11765,24 @@
         <v/>
       </c>
       <c r="Q89" s="54" t="s">
-        <v>356</v>
+        <v>170</v>
       </c>
       <c r="R89" s="56" t="n">
         <v>43646</v>
       </c>
     </row>
-    <row customHeight="1" ht="28.5" r="90" s="156" spans="1:34" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="28.5" r="90" s="158" spans="1:34" thickBot="1" thickTop="1">
       <c r="B90" s="4" t="n"/>
       <c r="C90" s="5" t="s">
-        <v>360</v>
+        <v>174</v>
       </c>
       <c r="D90" s="6" t="n"/>
       <c r="E90" s="7" t="s">
-        <v>361</v>
+        <v>175</v>
       </c>
       <c r="F90" s="8" t="n"/>
       <c r="G90" s="73" t="s">
-        <v>362</v>
+        <v>176</v>
       </c>
       <c r="H90" s="9" t="n"/>
       <c r="M90" s="33" t="s">
@@ -13382,7 +11797,7 @@
         <v/>
       </c>
       <c r="Q90" s="55" t="s">
-        <v>363</v>
+        <v>177</v>
       </c>
       <c r="R90" s="90">
         <f>R89-TODAY()</f>
@@ -13390,9 +11805,9 @@
       </c>
       <c r="S90" s="17" t="n"/>
     </row>
-    <row customHeight="1" ht="28.5" r="91" s="156" spans="1:34" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="28.5" r="91" s="158" spans="1:34" thickBot="1" thickTop="1">
       <c r="B91" s="50" t="s">
-        <v>347</v>
+        <v>161</v>
       </c>
       <c r="C91" s="10" t="n">
         <v>8</v>
@@ -13409,7 +11824,7 @@
       </c>
       <c r="H91" s="14" t="n"/>
       <c r="M91" s="33" t="s">
-        <v>364</v>
+        <v>178</v>
       </c>
       <c r="N91" s="69">
         <f>N89-N90</f>
@@ -13420,9 +11835,9 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="28.5" r="92" s="156" spans="1:34" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="28.5" r="92" s="158" spans="1:34" thickBot="1" thickTop="1">
       <c r="B92" s="16" t="s">
-        <v>365</v>
+        <v>179</v>
       </c>
       <c r="C92" s="17" t="n"/>
       <c r="D92" s="11" t="n"/>
@@ -13436,36 +11851,36 @@
       <c r="N92" s="18" t="n"/>
       <c r="O92" s="18" t="n"/>
     </row>
-    <row customHeight="1" ht="28.5" r="93" s="156" spans="1:34" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="28.5" r="93" s="158" spans="1:34" thickBot="1" thickTop="1">
       <c r="B93" s="3" t="n"/>
-      <c r="C93" s="155" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="28.5" r="94" s="156" spans="1:34" thickBot="1" thickTop="1">
+      <c r="C93" s="157" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="28.5" r="94" s="158" spans="1:34" thickBot="1" thickTop="1">
       <c r="B94" s="4" t="n"/>
       <c r="C94" s="5" t="s">
-        <v>360</v>
+        <v>174</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>367</v>
+        <v>181</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>361</v>
+        <v>175</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>367</v>
+        <v>181</v>
       </c>
       <c r="G94" s="73" t="s">
-        <v>362</v>
+        <v>176</v>
       </c>
       <c r="H94" s="9" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="28.5" r="95" s="156" spans="1:34" thickTop="1">
+        <v>181</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="28.5" r="95" s="158" spans="1:34" thickTop="1">
       <c r="B95" s="50" t="s">
-        <v>347</v>
+        <v>161</v>
       </c>
       <c r="C95" s="10" t="n">
         <v>17</v>
@@ -13491,9 +11906,9 @@
       </c>
       <c r="I95" s="17" t="n"/>
     </row>
-    <row customHeight="1" ht="28.5" r="96" s="156" spans="1:34" thickBot="1">
+    <row customHeight="1" ht="28.5" r="96" s="158" spans="1:34" thickBot="1">
       <c r="B96" s="16" t="s">
-        <v>365</v>
+        <v>179</v>
       </c>
       <c r="C96" s="17" t="n"/>
       <c r="D96" s="77">
@@ -13515,47 +11930,47 @@
       </c>
       <c r="I96" s="17" t="n"/>
     </row>
-    <row customHeight="1" ht="28.5" r="97" s="156" spans="1:34" thickTop="1">
+    <row customHeight="1" ht="28.5" r="97" s="158" spans="1:34" thickTop="1">
       <c r="C97" s="18" t="n"/>
       <c r="D97" s="18" t="n"/>
       <c r="F97" s="18" t="n"/>
       <c r="H97" s="18" t="n"/>
     </row>
-    <row customHeight="1" ht="28.5" r="98" s="156" spans="1:34" thickBot="1"/>
-    <row customHeight="1" ht="28.5" r="99" s="156" spans="1:34" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="28.5" r="98" s="158" spans="1:34" thickBot="1"/>
+    <row customHeight="1" ht="28.5" r="99" s="158" spans="1:34" thickBot="1" thickTop="1">
       <c r="B99" s="15" t="s">
-        <v>368</v>
+        <v>182</v>
       </c>
       <c r="C99" s="24">
         <f>#REF!/100</f>
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="28.5" r="100" s="156" spans="1:34" thickTop="1"/>
-    <row customHeight="1" ht="28.5" r="101" s="156" spans="1:34" thickBot="1"/>
-    <row customHeight="1" ht="28.5" r="102" s="156" spans="1:34" thickBot="1">
-      <c r="C102" s="157" t="s">
-        <v>369</v>
+    <row customHeight="1" ht="28.5" r="100" s="158" spans="1:34" thickTop="1"/>
+    <row customHeight="1" ht="28.5" r="101" s="158" spans="1:34" thickBot="1"/>
+    <row customHeight="1" ht="28.5" r="102" s="158" spans="1:34" thickBot="1">
+      <c r="C102" s="159" t="s">
+        <v>183</v>
       </c>
       <c r="G102" s="32" t="n"/>
     </row>
-    <row customHeight="1" ht="28.5" r="103" s="156" spans="1:34" thickBot="1">
+    <row customHeight="1" ht="28.5" r="103" s="158" spans="1:34" thickBot="1">
       <c r="B103" s="114" t="n"/>
       <c r="C103" s="111" t="s">
         <v>2</v>
       </c>
       <c r="D103" s="112" t="n"/>
       <c r="E103" s="113" t="s">
-        <v>361</v>
+        <v>175</v>
       </c>
       <c r="F103" s="113" t="s">
-        <v>370</v>
+        <v>184</v>
       </c>
       <c r="G103" s="32" t="n"/>
     </row>
-    <row customHeight="1" ht="28.5" r="104" s="156" spans="1:34" thickBot="1">
+    <row customHeight="1" ht="28.5" r="104" s="158" spans="1:34" thickBot="1">
       <c r="B104" s="116" t="s">
-        <v>371</v>
+        <v>185</v>
       </c>
       <c r="C104" s="115" t="n">
         <v>14500</v>
@@ -13569,28 +11984,28 @@
       </c>
       <c r="G104" s="32" t="n"/>
     </row>
-    <row customHeight="1" ht="28.5" r="105" s="156" spans="1:34" thickBot="1">
-      <c r="C105" s="157" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="28.5" r="106" s="156" spans="1:34" thickBot="1">
+    <row customHeight="1" ht="28.5" r="105" s="158" spans="1:34" thickBot="1">
+      <c r="C105" s="159" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="28.5" r="106" s="158" spans="1:34" thickBot="1">
       <c r="B106" s="114" t="n"/>
       <c r="C106" s="111" t="s">
         <v>2</v>
       </c>
       <c r="D106" s="112" t="n"/>
       <c r="E106" s="113" t="s">
-        <v>361</v>
+        <v>175</v>
       </c>
       <c r="F106" s="113" t="s">
-        <v>370</v>
+        <v>184</v>
       </c>
       <c r="G106" s="32" t="n"/>
     </row>
-    <row customHeight="1" ht="28.5" r="107" s="156" spans="1:34" thickBot="1">
+    <row customHeight="1" ht="28.5" r="107" s="158" spans="1:34" thickBot="1">
       <c r="B107" s="116" t="s">
-        <v>371</v>
+        <v>185</v>
       </c>
       <c r="C107" s="115" t="n">
         <v>14500</v>
@@ -13603,44 +12018,44 @@
         <v>15</v>
       </c>
     </row>
-    <row customHeight="1" ht="28.5" r="108" s="156" spans="1:34" thickBot="1"/>
-    <row customHeight="1" ht="28.5" r="109" s="156" spans="1:34" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="28.5" r="108" s="158" spans="1:34" thickBot="1"/>
+    <row customHeight="1" ht="28.5" r="109" s="158" spans="1:34" thickBot="1" thickTop="1">
       <c r="B109" s="26" t="s">
-        <v>372</v>
+        <v>186</v>
       </c>
       <c r="C109" s="104" t="s">
-        <v>284</v>
+        <v>4</v>
       </c>
       <c r="D109" s="103" t="s">
-        <v>373</v>
+        <v>187</v>
       </c>
       <c r="E109" s="99" t="s">
-        <v>374</v>
+        <v>188</v>
       </c>
       <c r="F109" s="100" t="s">
-        <v>375</v>
+        <v>189</v>
       </c>
       <c r="G109" s="32" t="n"/>
     </row>
-    <row customHeight="1" ht="28.5" r="110" s="156" spans="1:34" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="28.5" r="110" s="158" spans="1:34" thickBot="1" thickTop="1">
       <c r="B110" s="40" t="s">
-        <v>388</v>
+        <v>202</v>
       </c>
       <c r="C110" s="106" t="n">
         <v>43515</v>
       </c>
       <c r="D110" s="105" t="s">
-        <v>353</v>
+        <v>167</v>
       </c>
       <c r="E110" s="97" t="n">
         <v>3000</v>
       </c>
       <c r="F110" s="101" t="s">
-        <v>387</v>
+        <v>201</v>
       </c>
       <c r="G110" s="32" t="n"/>
     </row>
-    <row customHeight="1" ht="28.5" r="111" s="156" spans="1:34" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="28.5" r="111" s="158" spans="1:34" thickBot="1" thickTop="1">
       <c r="B111" s="40" t="n"/>
       <c r="C111" s="107" t="n"/>
       <c r="D111" s="108" t="n"/>
@@ -13648,7 +12063,7 @@
       <c r="F111" s="98" t="n"/>
       <c r="G111" s="32" t="n"/>
     </row>
-    <row customHeight="1" ht="28.5" r="112" s="156" spans="1:34" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="28.5" r="112" s="158" spans="1:34" thickBot="1" thickTop="1">
       <c r="B112" s="41" t="n"/>
       <c r="C112" s="109" t="n"/>
       <c r="D112" s="108" t="n"/>
@@ -13663,17 +12078,17 @@
       <c r="E113" s="31" t="n"/>
       <c r="F113" s="31" t="n"/>
     </row>
-    <row customHeight="1" ht="28.5" r="121" s="156" spans="1:34">
-      <c r="E121" s="160" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="19.5" r="129" s="156" spans="1:34">
-      <c r="E129" s="158" t="s">
-        <v>390</v>
-      </c>
-      <c r="H129" s="159" t="s">
-        <v>391</v>
+    <row customHeight="1" ht="28.5" r="121" s="158" spans="1:34">
+      <c r="E121" s="162" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="19.5" r="129" s="158" spans="1:34">
+      <c r="E129" s="160" t="s">
+        <v>204</v>
+      </c>
+      <c r="H129" s="161" t="s">
+        <v>205</v>
       </c>
       <c r="I129" s="134" t="n"/>
       <c r="J129" s="134" t="n"/>
@@ -13690,14 +12105,14 @@
       <c r="U129" s="134" t="n"/>
     </row>
     <row r="130" spans="1:34">
-      <c r="E130" s="159" t="s">
-        <v>392</v>
-      </c>
-      <c r="F130" s="159" t="s">
-        <v>393</v>
-      </c>
-      <c r="G130" s="159" t="s">
-        <v>394</v>
+      <c r="E130" s="161" t="s">
+        <v>206</v>
+      </c>
+      <c r="F130" s="161" t="s">
+        <v>207</v>
+      </c>
+      <c r="G130" s="161" t="s">
+        <v>208</v>
       </c>
       <c r="I130" s="135" t="n"/>
       <c r="J130" s="135" t="n"/>
@@ -13721,7 +12136,7 @@
         <v>43342</v>
       </c>
       <c r="G131" s="137" t="s">
-        <v>395</v>
+        <v>209</v>
       </c>
       <c r="H131" s="138">
         <f>DAYS360(E131,F131,FALSE)</f>
@@ -13749,7 +12164,7 @@
         <v>43350</v>
       </c>
       <c r="G132" s="140" t="s">
-        <v>396</v>
+        <v>210</v>
       </c>
       <c r="H132" s="138">
         <f>DAYS360(E132,F132,FALSE)</f>
@@ -13777,7 +12192,7 @@
         <v>43360</v>
       </c>
       <c r="G133" s="137" t="s">
-        <v>397</v>
+        <v>211</v>
       </c>
       <c r="H133" s="138">
         <f>DAYS360(E133,F133,FALSE)</f>
@@ -13805,7 +12220,7 @@
         <v>43373</v>
       </c>
       <c r="G134" s="140" t="s">
-        <v>398</v>
+        <v>212</v>
       </c>
       <c r="H134" s="138">
         <f>DAYS360(E134,F134,FALSE)</f>
@@ -13833,7 +12248,7 @@
         <v>43411</v>
       </c>
       <c r="G135" s="137" t="s">
-        <v>399</v>
+        <v>213</v>
       </c>
       <c r="H135" s="138">
         <f>DAYS360(E135,F135,FALSE)</f>
@@ -13861,7 +12276,7 @@
         <v>43455</v>
       </c>
       <c r="G136" s="140" t="s">
-        <v>400</v>
+        <v>214</v>
       </c>
       <c r="H136" s="138">
         <f>DAYS360(E136,F136,FALSE)</f>
@@ -13889,7 +12304,7 @@
         <v>43540</v>
       </c>
       <c r="G137" s="137" t="s">
-        <v>401</v>
+        <v>215</v>
       </c>
       <c r="H137" s="138">
         <f>DAYS360(E137,F137,FALSE)</f>
@@ -13917,7 +12332,7 @@
         <v>43567</v>
       </c>
       <c r="G138" s="140" t="s">
-        <v>402</v>
+        <v>216</v>
       </c>
       <c r="H138" s="138">
         <f>DAYS360(E138,F138,FALSE)</f>
@@ -13945,7 +12360,7 @@
         <v>43601</v>
       </c>
       <c r="G139" s="137" t="s">
-        <v>403</v>
+        <v>217</v>
       </c>
       <c r="H139" s="138">
         <f>DAYS360(E139,F139,FALSE)</f>
@@ -14174,17 +12589,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>404</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>405</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>406</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
